--- a/data/annotations/indicators_and_annotations-v4.xlsx
+++ b/data/annotations/indicators_and_annotations-v4.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akasapriya/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreab/Dropbox/DRBX_Docs/Work/Projects/github_projects/museums-in-the-pandemic/data/annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="497" documentId="13_ncr:1_{C4815C13-F643-F04E-9CEA-78A842CB2D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93E1D253-7030-438B-8075-6B607CEC0CA3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2DC2EE-ACE6-5D4B-AAC4-A13A2B1E7599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12720" windowHeight="28340" xr2:uid="{481ABEC8-5B18-9343-B582-3EAA0FA623A1}"/>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="18340" windowHeight="28340" firstSheet="1" activeTab="1" xr2:uid="{B946F43B-58A6-4248-B453-C61D9D19EABF}"/>
+    <workbookView xWindow="4860" yWindow="500" windowWidth="18340" windowHeight="16660" activeTab="1" xr2:uid="{B946F43B-58A6-4248-B453-C61D9D19EABF}"/>
   </bookViews>
   <sheets>
     <sheet name="indicators" sheetId="3" r:id="rId1"/>
-    <sheet name="annotations bow" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
-    <sheet name="annotations" sheetId="1" r:id="rId4"/>
-    <sheet name="notable_links" sheetId="2" r:id="rId5"/>
+    <sheet name="annotations_bow" sheetId="4" r:id="rId2"/>
+    <sheet name="annotations" sheetId="1" r:id="rId3"/>
+    <sheet name="notable_links" sheetId="2" r:id="rId4"/>
+    <sheet name="stats" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">annotations!$A$1:$D$63</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'annotations bow'!$A$1:$C$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">annotations!$A$1:$D$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">annotations_bow!$A$1:$C$72</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indicators!$A$1:$C$60</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="591">
   <si>
     <t>indicator_code</t>
   </si>
@@ -343,9 +342,6 @@
     <t>museum closed </t>
   </si>
   <si>
-    <t>temporarilly closed  </t>
-  </si>
-  <si>
     <t>there will be no services over due to the Covid-19 pandemic  </t>
   </si>
   <si>
@@ -355,36 +351,21 @@
     <t>we have closed </t>
   </si>
   <si>
-    <t>we’re closed </t>
-  </si>
-  <si>
     <t>We are currently closed to visitors</t>
   </si>
   <si>
-    <t>Please note: is curently closed due to Government Covid restrictions</t>
-  </si>
-  <si>
     <t>our office wil not reopen till</t>
   </si>
   <si>
-    <t>is now closed due to Covid.</t>
-  </si>
-  <si>
     <t>We are currently closed</t>
   </si>
   <si>
-    <t xml:space="preserve">We have made the decision to remain closed to the general public </t>
-  </si>
-  <si>
     <t>Temporarily closed </t>
   </si>
   <si>
     <t>we have taken the hard decision to remain closed now until early 2021. </t>
   </si>
   <si>
-    <t>WILL BE CLOSED DURING THE NATIONAL LOCKDOWN </t>
-  </si>
-  <si>
     <t>currently closed in-line with Government restrictions</t>
   </si>
   <si>
@@ -418,9 +399,6 @@
     <t>In line with national restrictions the Museum is temporarily closed. </t>
   </si>
   <si>
-    <t>In line with government restrictions remain closed for now. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> we have to remain Temporarily Closed </t>
   </si>
   <si>
@@ -466,9 +444,6 @@
     <t>every item will be secured, stored and looked after appropriately until one day we can see it all back on display</t>
   </si>
   <si>
-    <t>completely making up for the deficit caused by the 2020 Covid lockdown</t>
-  </si>
-  <si>
     <t>enables us to continue with confidence  </t>
   </si>
   <si>
@@ -508,18 +483,12 @@
     <t>a successful crowdfunding campaign was launched  </t>
   </si>
   <si>
-    <t>consider donating to our campaign. </t>
-  </si>
-  <si>
     <t>crowdfunding appeal</t>
   </si>
   <si>
     <t xml:space="preserve">enabled us to exceed our target  </t>
   </si>
   <si>
-    <t>the total amount raised online was and in addition several donations were received in the form of a cheque. </t>
-  </si>
-  <si>
     <t>crowdfunding project for which we are aiming to raise pandemic survival </t>
   </si>
   <si>
@@ -529,21 +498,12 @@
     <t>in less than two months you have helped us to reach our target and raised over to support the work of   </t>
   </si>
   <si>
-    <t>has launched our Survival Appeal calling on our worldwide community to help if they can. </t>
-  </si>
-  <si>
     <t>Just Giving page to help secure for the future </t>
   </si>
   <si>
-    <t>please donate now to help survive. </t>
-  </si>
-  <si>
     <t>please support our Survival Appeal </t>
   </si>
   <si>
-    <t>so, we’re asking for your help in the form of this new donations page. </t>
-  </si>
-  <si>
     <t>so we need your help to keep us afloat this season, to ensure we come back once this situation is over and continue to keep alive for generations to come</t>
   </si>
   <si>
@@ -556,15 +516,9 @@
     <t>Thank you to everyone who supported our campaigns  </t>
   </si>
   <si>
-    <t>The struggles that we faced in have not gone away and as winter takes hold vital maintenance work has to continue to protect the site.  </t>
-  </si>
-  <si>
     <t>We urgently need to raise</t>
   </si>
   <si>
-    <t>“Weathering the Storm” through funding success. </t>
-  </si>
-  <si>
     <t>support the musueum</t>
   </si>
   <si>
@@ -589,18 +543,9 @@
     <t>If you are able to support us with a donation, you can do so here</t>
   </si>
   <si>
-    <t xml:space="preserve"> via our JustGiving page. </t>
-  </si>
-  <si>
     <t>Support our Future</t>
   </si>
   <si>
-    <t>we are appealing to our loyal followers, friends and supporters for donations small or large to keep our legacy alive for future generations to enjoy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Whatever donation small or large it is greatly appreciated and will undoubtedly contribute to our campaign.</t>
-  </si>
-  <si>
     <t>Please support the conservation of our properties and collections by making a donation. </t>
   </si>
   <si>
@@ -622,42 +567,15 @@
     <t>Help secure our future</t>
   </si>
   <si>
-    <t>Every donation is important to us.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to donate online or send a donation by cheque to the Museum address.  </t>
-  </si>
-  <si>
-    <t>Make a donation.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Your support allows us to stay open and continue to conserve</t>
   </si>
   <si>
-    <t>Ensure by giving your support today.</t>
-  </si>
-  <si>
     <t>Your donation today is hugely appreciated</t>
   </si>
   <si>
     <t>To help support further</t>
   </si>
   <si>
-    <t xml:space="preserve">Your support makes a real difference. </t>
-  </si>
-  <si>
-    <t>there are lots of other ways you can help too.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> See how you can support us.</t>
-  </si>
-  <si>
-    <t>your help is needed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPPORT US </t>
-  </si>
-  <si>
     <t>Make a donation »</t>
   </si>
   <si>
@@ -682,33 +600,15 @@
     <t>we are very grateful to the financial support we have received from various government led initiatives</t>
   </si>
   <si>
-    <t>We are currently in receipt of Culture Recovery Fund support from the government.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We are currently in receipt of fund support from the government. </t>
-  </si>
-  <si>
-    <t>thanks the National Lottery &amp; Arts Council England for their emergency financial support during the current crisis.</t>
-  </si>
-  <si>
     <t>receives lifeline grant from Government Culture Recovery Fund </t>
   </si>
   <si>
     <t>all operating income comes from admissions to our sites, spending in our shops and cafes and from donations  </t>
   </si>
   <si>
-    <t>external financial support has been essential and extremely welcome </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The museum is almost entirely reliant on income from our visitors in the form of ticket sales, shop purchases and donations. </t>
-  </si>
-  <si>
     <t>Without the help from our grant funders and those who visited the museum we would not have been able to continue caring for the collection and maintaining the site</t>
   </si>
   <si>
-    <t>our income is not coming in, but our outgoings are still going out</t>
-  </si>
-  <si>
     <t>to cover the shortfall</t>
   </si>
   <si>
@@ -721,18 +621,6 @@
     <t>during this difficult time</t>
   </si>
   <si>
-    <t xml:space="preserve"> damaging and continuing effects of the pandemic.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The COVID-19 pandemic is a disaster for individuals, businesses and organisations around the world.  </t>
-  </si>
-  <si>
-    <t>For us, as for so many, it will be crippling.</t>
-  </si>
-  <si>
-    <t>The impact it will have on our ability to protect this special place could be too much.</t>
-  </si>
-  <si>
     <t>This now looks to be at risk  </t>
   </si>
   <si>
@@ -742,12 +630,6 @@
     <t>towards keeping alive</t>
   </si>
   <si>
-    <t xml:space="preserve">We are all working our hardest to keep the doors open but </t>
-  </si>
-  <si>
-    <t>the sad reality is that we are going to struggle over the winter months </t>
-  </si>
-  <si>
     <t>we have had to make some changes in order for us to survive. </t>
   </si>
   <si>
@@ -796,12 +678,6 @@
     <t>although the Government has announced various funding schemes</t>
   </si>
   <si>
-    <t>it is unclear at the moment just how much this will cover us through this difficult time. </t>
-  </si>
-  <si>
-    <t>The next twelve months will be a critical time for the Museum.</t>
-  </si>
-  <si>
     <t>As we move back into what we hope will be a stable new normal, we will be expected increasingly to manage without the public or charitable support</t>
   </si>
   <si>
@@ -814,12 +690,6 @@
     <t>as of our income comes from visitors this puts us at great risk</t>
   </si>
   <si>
-    <t>The current situation has drastically reduced our main source of income, but our duty of care remains. </t>
-  </si>
-  <si>
-    <t>This comes at a significant and ongoing cost.</t>
-  </si>
-  <si>
     <t>Now we are facing a very different challenge.</t>
   </si>
   <si>
@@ -841,9 +711,6 @@
     <t>would love to hear about your personal experiences during this pandemic</t>
   </si>
   <si>
-    <t>blog tab</t>
-  </si>
-  <si>
     <t>follow us on Facebook, Instagram or find us on Flickr to see regular updates</t>
   </si>
   <si>
@@ -859,9 +726,6 @@
     <t>We are still telling our incredible stories online</t>
   </si>
   <si>
-    <t>sharing fun and useful resources online.</t>
-  </si>
-  <si>
     <t>will keep you updated of any changes through our website and social media channels</t>
   </si>
   <si>
@@ -874,9 +738,6 @@
     <t>Tickets are now on sale for our winter lecture series </t>
   </si>
   <si>
-    <t xml:space="preserve"> at home lecture by </t>
-  </si>
-  <si>
     <t>live online  </t>
   </si>
   <si>
@@ -889,9 +750,6 @@
     <t>a programme of online talks which we will be advertising soon</t>
   </si>
   <si>
-    <t xml:space="preserve">we have a number of Virtual Talks </t>
-  </si>
-  <si>
     <t>online letters </t>
   </si>
   <si>
@@ -904,15 +762,9 @@
     <t>online gallery </t>
   </si>
   <si>
-    <t>Our online exhibition also includes lots of ideas for activities, both on and off-line. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> online exhibition is now live</t>
   </si>
   <si>
-    <t>3D VIRTUAL TOUR NOW AVAILABLE </t>
-  </si>
-  <si>
     <t>our café is open</t>
   </si>
   <si>
@@ -940,9 +792,6 @@
     <t>web shop</t>
   </si>
   <si>
-    <t xml:space="preserve">All purchases will be processed and dispatched on or after </t>
-  </si>
-  <si>
     <t>Our online shop remains open </t>
   </si>
   <si>
@@ -961,15 +810,9 @@
     <t xml:space="preserve">Due to COVID19 project was postponed in </t>
   </si>
   <si>
-    <t>we have taken the decision to postpone the planned opening of </t>
-  </si>
-  <si>
     <t>Our guided tours have been postponed until later in the year.</t>
   </si>
   <si>
-    <t>2021 Dates Coming Soon</t>
-  </si>
-  <si>
     <t>2021 Operation Running Dates </t>
   </si>
   <si>
@@ -979,9 +822,6 @@
     <t>Event dates for 2021 will be posted here shortly. </t>
   </si>
   <si>
-    <t>we will announce any tickets going on sale. </t>
-  </si>
-  <si>
     <t>look forward to welcoming you again soon </t>
   </si>
   <si>
@@ -1003,12 +843,6 @@
     <t>updates about reopening, </t>
   </si>
   <si>
-    <t>Visit us in 2021</t>
-  </si>
-  <si>
-    <t>We will constantly monitor the situation and look to reopen </t>
-  </si>
-  <si>
     <t>we can re-open </t>
   </si>
   <si>
@@ -1018,27 +852,18 @@
     <t>We hope and pray that we can bring some of our amazing special events to you in 2021,  </t>
   </si>
   <si>
-    <t>We hope to announce and bring you during 2021  </t>
-  </si>
-  <si>
     <t>we look forward to seeing you again in 2021 </t>
   </si>
   <si>
     <t>We look forward to welcoming you all</t>
   </si>
   <si>
-    <t> when we open for the 2021 season. </t>
-  </si>
-  <si>
     <t>we still hope to mark our next anniversary </t>
   </si>
   <si>
     <t>welcome visitors back to our site as soon as we are able to </t>
   </si>
   <si>
-    <t>welcome you back in 2021</t>
-  </si>
-  <si>
     <t>welcoming you back soon. </t>
   </si>
   <si>
@@ -1051,9 +876,6 @@
     <t>Once Government restrictions are lifted</t>
   </si>
   <si>
-    <t xml:space="preserve"> we look forward to seeing you back at the museum</t>
-  </si>
-  <si>
     <t xml:space="preserve">Opening times Once Covid-restrictions are lifted </t>
   </si>
   <si>
@@ -1072,9 +894,6 @@
     <t>look forward to welcoming you again soon</t>
   </si>
   <si>
-    <t>will reopen in 2021</t>
-  </si>
-  <si>
     <t>We look forward to seeing you again once we have reopened</t>
   </si>
   <si>
@@ -1102,18 +921,9 @@
     <t>we look forward to seeing you again soon. </t>
   </si>
   <si>
-    <t xml:space="preserve">We plan to reopen for the 2021 season on </t>
-  </si>
-  <si>
     <t>planning to reopen  </t>
   </si>
   <si>
-    <t>We currently plan to re-open in early 2021</t>
-  </si>
-  <si>
-    <t>We are hiring new volunteers.</t>
-  </si>
-  <si>
     <t>Click here to find out more about these posts </t>
   </si>
   <si>
@@ -1123,12 +933,6 @@
     <t>We also have a real need for more volunteers  </t>
   </si>
   <si>
-    <t>From the earliest days of the Mary Rose project, we’ve relied on the work of volunteers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> We’re always looking for new people to join our team, are you one of them? </t>
-  </si>
-  <si>
     <t>Interested in volunteering?</t>
   </si>
   <si>
@@ -1138,18 +942,6 @@
     <t>major review and restructuring of its operations</t>
   </si>
   <si>
-    <t xml:space="preserve">major review and restructuring of its operations </t>
-  </si>
-  <si>
-    <t>The team continues to work through the winter months. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> will continue to be checked throughout the closure </t>
-  </si>
-  <si>
-    <t>We will use this time to continue to make improvements  </t>
-  </si>
-  <si>
     <t>The Museum will continue to monitor government guidance</t>
   </si>
   <si>
@@ -1159,9 +951,6 @@
     <t>Our staff team will therefore be working from home as much as possible during the lockdown</t>
   </si>
   <si>
-    <t>If you have any queries we are very happy to answer them.</t>
-  </si>
-  <si>
     <t>Our volunteer coordinator will be in touch within a few days. </t>
   </si>
   <si>
@@ -1172,12 +961,6 @@
   </si>
   <si>
     <t>We’re continuing to work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">survival appeal </t>
-  </si>
-  <si>
-    <t>Just Giving </t>
   </si>
   <si>
     <t>our shop will be offering online sales</t>
@@ -1677,13 +1460,370 @@
   </si>
   <si>
     <t>https://www.justgiving.com/</t>
+  </si>
+  <si>
+    <t>had to close doors</t>
+  </si>
+  <si>
+    <t>temporarily closed  </t>
+  </si>
+  <si>
+    <t>to temporarily close</t>
+  </si>
+  <si>
+    <t>we’re closed</t>
+  </si>
+  <si>
+    <t>currently closed due to Government Covid restrictions</t>
+  </si>
+  <si>
+    <t>we are currently closed to visitors</t>
+  </si>
+  <si>
+    <t>We have made the decision to remain closed to the general public</t>
+  </si>
+  <si>
+    <t>we have taken the hard decision to remain closed</t>
+  </si>
+  <si>
+    <t>will be closed during the national lockdown</t>
+  </si>
+  <si>
+    <t>currently closed in line with Government restrictions</t>
+  </si>
+  <si>
+    <t>currently closed on government advice</t>
+  </si>
+  <si>
+    <t>temporarily closed</t>
+  </si>
+  <si>
+    <t>is now closed due to covid</t>
+  </si>
+  <si>
+    <t>closed following government guidelines</t>
+  </si>
+  <si>
+    <t>In line with national restrictions the Museum is temporarily closed</t>
+  </si>
+  <si>
+    <t>this site is currently closed</t>
+  </si>
+  <si>
+    <t>everything has been properly packed and stored away</t>
+  </si>
+  <si>
+    <t>closed to members of the public until further notice</t>
+  </si>
+  <si>
+    <t>I have to inform you of the decision to close</t>
+  </si>
+  <si>
+    <t>consider donating to our campaign</t>
+  </si>
+  <si>
+    <t>the total amount raised online was and in addition several donations were received in the form of a cheque</t>
+  </si>
+  <si>
+    <t>has launched our Survival Appeal calling on our worldwide community to help if they can</t>
+  </si>
+  <si>
+    <t>please donate now to help survive</t>
+  </si>
+  <si>
+    <t>The struggles that we faced in have not gone away and as winter takes hold vital maintenance work has to continue to protect the site</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> via our JustGiving</t>
+  </si>
+  <si>
+    <t>we are appealing to our loyal followers, friends and supporters for donations small or large to keep our legacy alive for future generations to enjoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Whatever donation small or large it is greatly appreciated and will undoubtedly contribute to our campaign</t>
+  </si>
+  <si>
+    <t>Please support the conservation of our properties and collections by making a donation</t>
+  </si>
+  <si>
+    <t>Our supporters in the USA may make their contributions</t>
+  </si>
+  <si>
+    <t>The simplest way to donate is to donate online</t>
+  </si>
+  <si>
+    <t>Please support us during this time with a Donation</t>
+  </si>
+  <si>
+    <t>Every donation is important to us</t>
+  </si>
+  <si>
+    <t>Make a donation</t>
+  </si>
+  <si>
+    <t>to donate online or send a donation by cheque to the Museum address</t>
+  </si>
+  <si>
+    <t>Ensure by giving your support today</t>
+  </si>
+  <si>
+    <t>Your support makes a real difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> See how you can support us</t>
+  </si>
+  <si>
+    <t>your help is needed</t>
+  </si>
+  <si>
+    <t>support us</t>
+  </si>
+  <si>
+    <t>updates about reopening</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HM Treasury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grant funders Historic England </t>
+  </si>
+  <si>
+    <t>We are currently in receipt of Culture Recovery Fund support from the government</t>
+  </si>
+  <si>
+    <t>We are currently in receipt of fund support from the government</t>
+  </si>
+  <si>
+    <t>thanks the National Lottery &amp; Arts Council England for their emergency financial support during the current crisis</t>
+  </si>
+  <si>
+    <t>external financial support has been essential and extremely welcome</t>
+  </si>
+  <si>
+    <t>The museum is almost entirely reliant on income from our visitors in the form of ticket sales, shop purchases and donations</t>
+  </si>
+  <si>
+    <t>our income is not coming in but our outgoings are still going out</t>
+  </si>
+  <si>
+    <t>damaging and continuing effects of the pandemic</t>
+  </si>
+  <si>
+    <t>The COVID-19 pandemic is a disaster for individuals, businesses and organisations around the world</t>
+  </si>
+  <si>
+    <t>it will be crippling</t>
+  </si>
+  <si>
+    <t>The impact it will have on our ability to protect this special place could be too much</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are all working our hardest to keep the doors open </t>
+  </si>
+  <si>
+    <t>the sad reality is that we are going to struggle over the winter months</t>
+  </si>
+  <si>
+    <t>we have had to make some changes in order for us to survive</t>
+  </si>
+  <si>
+    <t>In line with government restrictions remain closed for now  </t>
+  </si>
+  <si>
+    <t>we are asking for your help in the form of this new donations page  </t>
+  </si>
+  <si>
+    <t>Weathering the Storm through funding success  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">there are lots of other ways you can help too </t>
+  </si>
+  <si>
+    <t>a very challenging time  </t>
+  </si>
+  <si>
+    <t>it is unclear at the moment just how much this will cover us through this difficult time  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The next twelve months will be a critical time for the Museum </t>
+  </si>
+  <si>
+    <t>The current situation has drastically reduced our main source of income, but our duty of care remains  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This comes at a significant and ongoing cost </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now we are facing a very different challenge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sharing fun and useful resources online </t>
+  </si>
+  <si>
+    <t>Our online exhibition also includes lots of ideas for activities, both on and off-line  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can, however purchase a wide range of unique gifts from our online shop </t>
+  </si>
+  <si>
+    <t>we will announce any tickets going on sale  </t>
+  </si>
+  <si>
+    <t>welcoming you back soon  </t>
+  </si>
+  <si>
+    <t>look forward to welcoming you again soon  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">we look forward to welcoming you back soon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We’ll be open again once the guidance changes </t>
+  </si>
+  <si>
+    <t>we look forward to seeing you again soon  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are hiring new volunteers </t>
+  </si>
+  <si>
+    <t>and our properties are at risk of permanent closure</t>
+  </si>
+  <si>
+    <t>Our volunteer coordinator will be in touch within a few days</t>
+  </si>
+  <si>
+    <t>If you have any queries we are very happy to answer them</t>
+  </si>
+  <si>
+    <t>help our reduced team keep our site safe and clean</t>
+  </si>
+  <si>
+    <t>We will use this time to continue to make improvements</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> will continue to be checked throughout the closure</t>
+  </si>
+  <si>
+    <t>The team continues to work through the winter months</t>
+  </si>
+  <si>
+    <t>We're always looking for volunteers</t>
+  </si>
+  <si>
+    <t>Interested in volunteering</t>
+  </si>
+  <si>
+    <t>We are always looking for new people to join our team, are you one of them</t>
+  </si>
+  <si>
+    <t>From the earliest days of the Mary Rose project, we have relied on the work of volunteers</t>
+  </si>
+  <si>
+    <t>Current vacancies</t>
+  </si>
+  <si>
+    <t>We currently plan to re-open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hope we will be back soon </t>
+  </si>
+  <si>
+    <t>we look forward to seeing you again once we have reopened</t>
+  </si>
+  <si>
+    <t>we look forward to seeing you back at the museum</t>
+  </si>
+  <si>
+    <t>welcome visitors back to our site as soon as we are able</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we have taken the hard decision to remain closed now until early </t>
+  </si>
+  <si>
+    <t>closed until Spring  </t>
+  </si>
+  <si>
+    <t>Event dates for  will be posted here shortly  </t>
+  </si>
+  <si>
+    <t>Our hopes for   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We hope and pray that we can bring some of our amazing special events to you in </t>
+  </si>
+  <si>
+    <t>We hope to announce and bring you during   </t>
+  </si>
+  <si>
+    <t>we look forward to seeing you again in  </t>
+  </si>
+  <si>
+    <t> when we open for the  season  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">welcome you back in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">we look forward to seeing you in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">will reopen in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We plan to reopen for the  season on </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We currently plan to re-open in early </t>
+  </si>
+  <si>
+    <t>completely making up for the deficit caused by the  Covid lockdown</t>
+  </si>
+  <si>
+    <t>We are continuing to work</t>
+  </si>
+  <si>
+    <t>We will constantly monitor the situation and look to reopen</t>
+  </si>
+  <si>
+    <t>Operation Running Dates </t>
+  </si>
+  <si>
+    <t>Dates Coming Soon</t>
+  </si>
+  <si>
+    <t>Our guided tours have been postponed until later in the year</t>
+  </si>
+  <si>
+    <t>we have taken the decision to postpone the planned opening</t>
+  </si>
+  <si>
+    <t>All purchases will be processed and dispatched on or after</t>
+  </si>
+  <si>
+    <t>virtual tour now available</t>
+  </si>
+  <si>
+    <t>our cafe is open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we have Virtual Talks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">at home lecture by </t>
+  </si>
+  <si>
+    <t>Tickets are now on sale for our winter lecture series</t>
+  </si>
+  <si>
+    <t>new blog</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1725,8 +1865,15 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1769,6 +1916,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1783,7 +1936,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1844,6 +1997,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2163,21 +2319,17 @@
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.100000000000001">
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2188,7 +2340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.100000000000001">
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -2199,7 +2351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.100000000000001">
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -2210,7 +2362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.100000000000001">
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -2221,7 +2373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17.100000000000001">
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -2232,7 +2384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.100000000000001">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -2243,7 +2395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.100000000000001">
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -2254,7 +2406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17.100000000000001">
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -2265,7 +2417,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17.100000000000001">
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -2276,7 +2428,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -2287,7 +2439,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -2295,7 +2447,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
@@ -2303,7 +2455,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
@@ -2311,7 +2463,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -2319,7 +2471,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
@@ -2330,7 +2482,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
@@ -2338,7 +2490,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -2346,7 +2498,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -2354,7 +2506,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
@@ -2362,7 +2514,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17.100000000000001">
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>31</v>
       </c>
@@ -2373,7 +2525,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
@@ -2384,7 +2536,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>31</v>
       </c>
@@ -2392,7 +2544,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
@@ -2403,7 +2555,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17.100000000000001">
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>36</v>
       </c>
@@ -2414,7 +2566,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>36</v>
       </c>
@@ -2425,7 +2577,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>36</v>
       </c>
@@ -2433,7 +2585,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>36</v>
       </c>
@@ -2441,7 +2593,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2452,7 +2604,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="17.100000000000001">
+    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>40</v>
       </c>
@@ -2463,7 +2615,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17.100000000000001">
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>42</v>
       </c>
@@ -2474,7 +2626,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17.100000000000001">
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>42</v>
       </c>
@@ -2483,7 +2635,7 @@
       </c>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:3" ht="17.100000000000001">
+    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>42</v>
       </c>
@@ -2492,7 +2644,7 @@
       </c>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" ht="17.100000000000001">
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>42</v>
       </c>
@@ -2500,7 +2652,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="17.100000000000001">
+    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>47</v>
       </c>
@@ -2511,7 +2663,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="17.100000000000001">
+    <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>49</v>
       </c>
@@ -2522,7 +2674,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="17.100000000000001">
+    <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>51</v>
       </c>
@@ -2531,7 +2683,7 @@
       </c>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" ht="17.100000000000001">
+    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>52</v>
       </c>
@@ -2542,7 +2694,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="17.100000000000001">
+    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>54</v>
       </c>
@@ -2553,7 +2705,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="17.100000000000001">
+    <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>56</v>
       </c>
@@ -2564,7 +2716,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="17.100000000000001">
+    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>56</v>
       </c>
@@ -2573,7 +2725,7 @@
       </c>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3" ht="17.100000000000001">
+    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>58</v>
       </c>
@@ -2584,7 +2736,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="17.100000000000001">
+    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>58</v>
       </c>
@@ -2593,7 +2745,7 @@
       </c>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="1:3" ht="17.100000000000001">
+    <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>60</v>
       </c>
@@ -2604,7 +2756,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="17.100000000000001">
+    <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>62</v>
       </c>
@@ -2615,7 +2767,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="17.100000000000001">
+    <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>64</v>
       </c>
@@ -2626,7 +2778,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="17.100000000000001">
+    <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>66</v>
       </c>
@@ -2637,7 +2789,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="17.100000000000001">
+    <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>66</v>
       </c>
@@ -2648,7 +2800,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="17.100000000000001">
+    <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>69</v>
       </c>
@@ -2659,7 +2811,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="17.100000000000001">
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>71</v>
       </c>
@@ -2670,7 +2822,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="17.100000000000001">
+    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>73</v>
       </c>
@@ -2681,7 +2833,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="17.100000000000001">
+    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>75</v>
       </c>
@@ -2692,7 +2844,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="17.100000000000001">
+    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>75</v>
       </c>
@@ -2700,7 +2852,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="17.100000000000001">
+    <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>77</v>
       </c>
@@ -2711,7 +2863,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="17.100000000000001">
+    <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>77</v>
       </c>
@@ -2719,7 +2871,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="17.100000000000001">
+    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
         <v>79</v>
       </c>
@@ -2730,7 +2882,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="17.100000000000001">
+    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
         <v>79</v>
       </c>
@@ -2738,7 +2890,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="17.100000000000001">
+    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
         <v>79</v>
       </c>
@@ -2747,7 +2899,7 @@
       </c>
       <c r="C57" s="6"/>
     </row>
-    <row r="58" spans="1:3" ht="17.100000000000001">
+    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>82</v>
       </c>
@@ -2758,7 +2910,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="17.100000000000001">
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>84</v>
       </c>
@@ -2769,7 +2921,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="17.100000000000001">
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>86</v>
       </c>
@@ -2789,26 +2941,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41342B3E-BD7C-48C6-BFD3-6EEAFC746026}">
-  <dimension ref="A1:H303"/>
+  <dimension ref="A1:H286"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A165" sqref="A165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.1640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="10.875" style="5"/>
+    <col min="4" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="15.75">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>88</v>
       </c>
@@ -2824,7 +2972,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>90</v>
       </c>
@@ -2832,15 +2980,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="31.5">
+    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>91</v>
+        <v>489</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75">
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>92</v>
       </c>
@@ -2848,7 +2996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75">
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>93</v>
       </c>
@@ -2856,7 +3004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75">
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>94</v>
       </c>
@@ -2864,7 +3012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75">
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>95</v>
       </c>
@@ -2872,15 +3020,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75">
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>96</v>
+        <v>472</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75">
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>97</v>
       </c>
@@ -2888,7 +3036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75">
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>98</v>
       </c>
@@ -2896,2242 +3044,2239 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="53.1" customHeight="1">
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>99</v>
+        <v>473</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="31.5">
+    <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75">
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>101</v>
+        <v>474</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75">
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75">
+    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>103</v>
+        <v>475</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75">
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>104</v>
+        <v>477</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="31.5">
+    <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>105</v>
+        <v>476</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75">
+    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75">
+    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>107</v>
+        <v>484</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75">
+    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="31.5">
+    <row r="21" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>109</v>
+        <v>478</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75">
+    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="31.5">
+    <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>111</v>
+        <v>564</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="31.5">
-      <c r="A24" s="20" t="s">
-        <v>112</v>
+    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>479</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="31.5">
-      <c r="A25" s="13" t="s">
-        <v>113</v>
+    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
+        <v>480</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="31.5">
-      <c r="A26" s="18" t="s">
-        <v>114</v>
+    <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>481</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75">
-      <c r="A27" s="13" t="s">
-        <v>115</v>
+    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="18" t="s">
+        <v>482</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75">
+    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>116</v>
+        <v>483</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="31.5">
+    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75">
+    <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="31.5">
+    <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75">
+    <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>120</v>
+        <v>481</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75">
+    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="31.5">
+    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>122</v>
+        <v>485</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="48.95" customHeight="1">
+    <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="31.5">
+    <row r="36" spans="1:2" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>124</v>
+        <v>486</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75">
+    <row r="37" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>125</v>
+        <v>527</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75">
+    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75">
-      <c r="A39" s="21" t="s">
-        <v>127</v>
+    <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="13" t="s">
+        <v>119</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="31.5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75">
+    <row r="41" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75">
-      <c r="A42" s="13" t="s">
-        <v>130</v>
+    <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75">
+    <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75">
+    <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75">
+    <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
-        <v>133</v>
+        <v>487</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75">
+    </row>
+    <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="57" customHeight="1">
+    <row r="47" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="57" customHeight="1">
+    <row r="48" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
-        <v>137</v>
+        <v>490</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="57" customHeight="1">
+    <row r="49" spans="1:2" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
-        <v>138</v>
+        <v>488</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="57" customHeight="1">
+    <row r="50" spans="1:2" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="31.5">
+    <row r="51" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="22" t="s">
-        <v>140</v>
+        <v>577</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75">
+    <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="31.5">
+    <row r="53" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.75">
+    <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="31.5">
+    <row r="55" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="31.5">
+    <row r="56" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="31.5">
+    <row r="57" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="21" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75">
+    <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75">
+    <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75">
+    <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="21" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="31.5">
+    <row r="61" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="31.5">
+    <row r="62" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="31.5">
+    <row r="63" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="31.5">
+    <row r="64" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A68" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A69" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A72" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A76" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A77" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="15.75">
-      <c r="A65" s="21" t="s">
+      <c r="B77" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="15.75">
-      <c r="A66" s="22" t="s">
+      <c r="B78" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="15.75">
-      <c r="A67" s="21" t="s">
+      <c r="B79" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A80" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="47.25">
-      <c r="A68" s="22" t="s">
+      <c r="B80" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A81" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="31.5">
-      <c r="A69" s="21" t="s">
+      <c r="B82" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="15.75">
-      <c r="A70" s="21" t="s">
+      <c r="B84" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="47.25">
-      <c r="A71" s="21" t="s">
+      <c r="B85" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="31.5">
-      <c r="A72" s="21" t="s">
+      <c r="B86" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A87" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="15.75">
-      <c r="A73" s="21" t="s">
+      <c r="B87" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A88" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="36" customHeight="1">
-      <c r="A74" s="21" t="s">
+      <c r="B88" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="15.75">
-      <c r="A75" s="21" t="s">
+      <c r="B89" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="31.5">
-      <c r="A76" s="21" t="s">
+      <c r="B90" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A91" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="63">
-      <c r="A77" s="22" t="s">
+      <c r="B91" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="15.75">
-      <c r="A78" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="15.75">
-      <c r="A79" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="31.5">
-      <c r="A80" s="21" t="s">
+      <c r="B93" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A94" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A95" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A96" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="47.25">
-      <c r="A81" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="15.75">
-      <c r="A82" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="15.75">
-      <c r="A83" s="21" t="s">
+      <c r="B98" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A101" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="15.75">
-      <c r="A84" s="19" t="s">
+      <c r="B101" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="15.75">
-      <c r="A85" s="13" t="s">
+      <c r="B102" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A104" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A106" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="15.75">
-      <c r="A86" s="19" t="s">
+      <c r="B106" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="47.25">
-      <c r="A87" s="13" t="s">
+      <c r="B108" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="31.5">
-      <c r="A88" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="15.75">
-      <c r="A89" s="19" t="s">
+      <c r="B109" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="21" t="s">
         <v>178</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="15.75">
-      <c r="A90" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="31.5">
-      <c r="A91" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="15.75">
-      <c r="A92" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="15.75">
-      <c r="A93" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="63">
-      <c r="A94" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="47.25">
-      <c r="A95" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="31.5">
-      <c r="A96" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="31.5">
-      <c r="A97" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="15.75">
-      <c r="A98" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="15.75">
-      <c r="A99" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="31.5">
-      <c r="A100" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="31.5">
-      <c r="A101" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="15.75">
-      <c r="A102" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="15.75">
-      <c r="A103" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="31.5">
-      <c r="A104" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="15.75">
-      <c r="A105" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="31.5">
-      <c r="A106" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="15.75">
-      <c r="A107" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="15.75">
-      <c r="A108" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="15.75">
-      <c r="A109" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="15.75">
-      <c r="A110" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="15.75">
-      <c r="A111" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="15.75">
-      <c r="A112" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="15.75">
-      <c r="A113" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="15.75">
-      <c r="A114" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="51.95" customHeight="1">
-      <c r="A115" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="15.75">
-      <c r="A116" s="21" t="s">
-        <v>205</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="47.25">
+    <row r="117" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A117" s="19" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="31.5">
+    <row r="118" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="19" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="47.25">
+    <row r="119" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="19" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="47.25">
+    <row r="120" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="19" t="s">
-        <v>209</v>
+        <v>512</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="47.25">
+    <row r="121" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A121" s="19" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="47.25">
-      <c r="A122" s="20" t="s">
-        <v>211</v>
+    <row r="122" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" s="19" t="s">
+        <v>513</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="31.5">
+    <row r="123" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A123" s="19" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="31.5">
-      <c r="A124" s="13" t="s">
-        <v>213</v>
+    <row r="124" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A124" s="20" t="s">
+        <v>184</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="47.25">
-      <c r="A125" s="13" t="s">
-        <v>214</v>
+    <row r="125" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A125" s="19" t="s">
+        <v>514</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="31.5">
+    <row r="126" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="13" t="s">
-        <v>215</v>
+        <v>515</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="47.25">
-      <c r="A127" s="21" t="s">
-        <v>216</v>
+    <row r="127" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A127" s="13" t="s">
+        <v>516</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="31.5">
-      <c r="A128" s="21" t="s">
-        <v>217</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A128" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="47.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A129" s="21" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="63">
-      <c r="A130" s="13" t="s">
-        <v>219</v>
+    <row r="130" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A130" s="21" t="s">
+        <v>517</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="31.5">
-      <c r="A131" s="22" t="s">
-        <v>220</v>
+    <row r="131" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A131" s="21" t="s">
+        <v>518</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="15.75">
-      <c r="A132" s="22" t="s">
-        <v>221</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="13" t="s">
+        <v>187</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="15.75">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A133" s="22" t="s">
-        <v>222</v>
+        <v>519</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="15.75">
-      <c r="A134" s="21" t="s">
-        <v>223</v>
+    <row r="134" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A134" s="22" t="s">
+        <v>188</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="15.75">
-      <c r="A135" s="21" t="s">
-        <v>224</v>
+    <row r="135" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A135" s="22" t="s">
+        <v>189</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="31.5">
+    <row r="136" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="21" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="47.25">
+    <row r="137" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="21" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="15.75">
-      <c r="A138" s="22" t="s">
-        <v>227</v>
+    <row r="138" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A138" s="21" t="s">
+        <v>520</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="31.5">
-      <c r="A139" s="22" t="s">
-        <v>228</v>
+    <row r="139" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A139" s="21" t="s">
+        <v>521</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="15.75">
+    <row r="140" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="22" t="s">
-        <v>229</v>
+        <v>522</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="15.75">
-      <c r="A141" s="21" t="s">
-        <v>230</v>
+    <row r="141" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A141" s="22" t="s">
+        <v>523</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="15.75">
-      <c r="A142" s="21" t="s">
-        <v>231</v>
+    <row r="142" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A142" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="31.5">
+    <row r="143" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="21" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="31.5">
-      <c r="A144" s="22" t="s">
-        <v>233</v>
+    <row r="144" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A144" s="21" t="s">
+        <v>194</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="31.5">
+    <row r="145" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="21" t="s">
-        <v>234</v>
+        <v>524</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="15.75">
-      <c r="A146" s="21" t="s">
-        <v>235</v>
+    <row r="146" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A146" s="22" t="s">
+        <v>525</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="15.75">
+    <row r="147" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A147" s="21" t="s">
-        <v>236</v>
+        <v>526</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="31.5">
+    <row r="148" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="21" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="31.5">
+    <row r="149" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="21" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="31.5">
-      <c r="A150" s="22" t="s">
-        <v>239</v>
+    <row r="150" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A150" s="21" t="s">
+        <v>198</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="15.75">
+    <row r="151" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="21" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="15.75">
-      <c r="A152" s="21" t="s">
-        <v>241</v>
+    <row r="152" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A152" s="22" t="s">
+        <v>200</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="31.5">
+    <row r="153" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="21" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="31.5">
+    <row r="154" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="21" t="s">
-        <v>243</v>
+        <v>531</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="15.75">
+    <row r="155" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="21" t="s">
-        <v>244</v>
+        <v>547</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="31.5">
+    <row r="156" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A156" s="21" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="31.5">
-      <c r="A157" s="19" t="s">
-        <v>246</v>
+    <row r="157" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A157" s="21" t="s">
+        <v>205</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="31.5">
-      <c r="A158" s="13" t="s">
-        <v>247</v>
+    <row r="158" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A158" s="21" t="s">
+        <v>206</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="15.75">
-      <c r="A159" s="13" t="s">
-        <v>248</v>
+    <row r="159" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A159" s="19" t="s">
+        <v>207</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="31.5">
-      <c r="A160" s="19" t="s">
-        <v>249</v>
+    <row r="160" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A160" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="31.5">
+    <row r="161" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="13" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="31.5">
+    <row r="162" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A162" s="19" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="63">
+    <row r="163" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A163" s="13" t="s">
-        <v>252</v>
+        <v>532</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C163" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="31.5">
-      <c r="A164" s="13" t="s">
-        <v>254</v>
+    </row>
+    <row r="164" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A164" s="19" t="s">
+        <v>533</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="31.5">
+    <row r="165" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A165" s="13" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="47.25">
-      <c r="A166" s="19" t="s">
-        <v>256</v>
+    <row r="166" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A166" s="13" t="s">
+        <v>213</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="15.75">
+    <row r="167" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A167" s="13" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15.75">
-      <c r="A168" s="13" t="s">
-        <v>258</v>
+    <row r="168" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A168" s="19" t="s">
+        <v>534</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="15.75">
-      <c r="A169" s="19" t="s">
-        <v>259</v>
+    <row r="169" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A169" s="13" t="s">
+        <v>535</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="15.75">
+    <row r="170" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="13" t="s">
-        <v>260</v>
+        <v>536</v>
       </c>
       <c r="B170" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A171" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A172" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B172" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15.75">
-      <c r="A171" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="15.75">
-      <c r="A172" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="15.75">
+    <row r="173" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="21" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="31.5">
+    <row r="174" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="21" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15.75">
+    <row r="175" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="21" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="31.5">
+    <row r="176" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A176" s="21" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="15.75">
-      <c r="A177" s="13" t="s">
-        <v>267</v>
+    <row r="177" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A177" s="21" t="s">
+        <v>590</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="31.5">
-      <c r="A178" s="13" t="s">
-        <v>268</v>
+    <row r="178" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A178" s="21" t="s">
+        <v>222</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="31.5">
+    <row r="179" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="13" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="15.75">
-      <c r="A180" s="19" t="s">
-        <v>270</v>
+    <row r="180" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A180" s="13" t="s">
+        <v>224</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="15.75">
+    <row r="181" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="13" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="31.5">
-      <c r="A182" s="13" t="s">
-        <v>272</v>
+    <row r="182" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A182" s="19" t="s">
+        <v>226</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="15.75">
-      <c r="A183" s="21" t="s">
-        <v>273</v>
+    <row r="183" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A183" s="13" t="s">
+        <v>537</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="15.75">
-      <c r="A184" s="21" t="s">
-        <v>274</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A184" s="13" t="s">
+        <v>227</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="31.5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="21" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="15.75">
+    <row r="186" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="21" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="15.75">
+    <row r="187" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="21" t="s">
-        <v>277</v>
+        <v>589</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="15.75">
+    <row r="188" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="21" t="s">
-        <v>278</v>
+        <v>588</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="15.75">
+    <row r="189" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="21" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="31.5">
-      <c r="A190" s="13" t="s">
-        <v>280</v>
+    <row r="190" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A190" s="21" t="s">
+        <v>232</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="15.75">
-      <c r="A191" s="13" t="s">
-        <v>281</v>
+    <row r="191" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A191" s="21" t="s">
+        <v>233</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="15.75">
-      <c r="A192" s="21" t="s">
-        <v>282</v>
+    <row r="192" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A192" s="13" t="s">
+        <v>234</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="15.75">
-      <c r="A193" s="22" t="s">
-        <v>283</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A193" s="13" t="s">
+        <v>587</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="15.75">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="21" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="15.75">
-      <c r="A195" s="21" t="s">
-        <v>285</v>
+    <row r="195" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A195" s="22" t="s">
+        <v>236</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="31.5">
+    <row r="196" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="21" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15.75">
-      <c r="A197" s="16" t="s">
-        <v>287</v>
+    <row r="197" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A197" s="21" t="s">
+        <v>238</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15.75">
-      <c r="A198" s="13" t="s">
-        <v>288</v>
+    <row r="198" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A198" s="21" t="s">
+        <v>538</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15.75">
-      <c r="A199" s="21" t="s">
-        <v>289</v>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="16" t="s">
+        <v>239</v>
       </c>
       <c r="B199" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A200" s="13" t="s">
+        <v>585</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A201" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="B201" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="15.75">
-      <c r="A200" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="15.75">
-      <c r="A201" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C201" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="31.5">
-      <c r="A202" s="19" t="s">
-        <v>293</v>
+    <row r="202" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A202" s="21" t="s">
+        <v>241</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15.75">
-      <c r="A203" s="15" t="s">
-        <v>294</v>
+    <row r="203" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A203" s="13" t="s">
+        <v>242</v>
       </c>
       <c r="B203" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A204" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A205" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="B205" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="31.5">
-      <c r="A204" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="31.5">
-      <c r="A205" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="15.75">
-      <c r="A206" s="19" t="s">
-        <v>297</v>
+    <row r="206" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A206" s="15" t="s">
+        <v>246</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="31.5">
+    <row r="207" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="15" t="s">
-        <v>298</v>
+        <v>247</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15.75">
-      <c r="A208" s="15" t="s">
-        <v>67</v>
+    <row r="208" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A208" s="19" t="s">
+        <v>248</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="15.75">
+    <row r="209" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" s="15" t="s">
-        <v>299</v>
+        <v>584</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="31.5">
-      <c r="A210" s="13" t="s">
-        <v>300</v>
+    <row r="210" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A210" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="15.75">
-      <c r="A211" s="13" t="s">
-        <v>301</v>
+    <row r="211" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A211" s="15" t="s">
+        <v>249</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="31.5">
+    <row r="212" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A212" s="13" t="s">
-        <v>302</v>
+        <v>539</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="15.75">
+    <row r="213" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="13" t="s">
-        <v>303</v>
+        <v>251</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="15.75">
-      <c r="A214" s="15" t="s">
-        <v>304</v>
+    <row r="214" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A214" s="13" t="s">
+        <v>252</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" ht="31.5">
-      <c r="A215" s="15" t="s">
-        <v>305</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A215" s="13" t="s">
+        <v>253</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" ht="31.5">
-      <c r="A216" s="13" t="s">
-        <v>306</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A216" s="15" t="s">
+        <v>254</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="15.75">
+    <row r="217" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" s="15" t="s">
-        <v>307</v>
+        <v>583</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" ht="15.75">
-      <c r="A218" s="15" t="s">
-        <v>308</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A218" s="13" t="s">
+        <v>582</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" ht="15.75">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" s="15" t="s">
-        <v>309</v>
+        <v>581</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="15.75">
+    <row r="220" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" s="15" t="s">
-        <v>310</v>
+        <v>580</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="15.75">
+    <row r="221" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" s="15" t="s">
-        <v>311</v>
+        <v>565</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="15.75">
+    <row r="222" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" s="15" t="s">
-        <v>312</v>
+        <v>566</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="15.75">
+    <row r="223" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" s="15" t="s">
-        <v>313</v>
+        <v>540</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="15.75">
+    <row r="224" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" s="15" t="s">
-        <v>314</v>
+        <v>259</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="15.75">
+    <row r="225" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A225" s="15" t="s">
-        <v>315</v>
+        <v>260</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="15.75">
+    <row r="226" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A226" s="15" t="s">
-        <v>316</v>
+        <v>261</v>
       </c>
       <c r="B226" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="15.75">
+    <row r="227" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" s="15" t="s">
-        <v>317</v>
+        <v>567</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="15.75">
+    <row r="228" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" s="15" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="15.75">
-      <c r="A229" s="19" t="s">
-        <v>319</v>
+    <row r="229" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A229" s="15" t="s">
+        <v>511</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="31.5">
+    <row r="230" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" s="15" t="s">
-        <v>320</v>
+        <v>579</v>
       </c>
       <c r="B230" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="15.75">
+    <row r="231" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" s="15" t="s">
-        <v>321</v>
+        <v>266</v>
       </c>
       <c r="B231" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="15.75">
+    <row r="232" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" s="15" t="s">
-        <v>322</v>
+        <v>267</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="31.5">
+    <row r="233" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A233" s="15" t="s">
-        <v>323</v>
+        <v>568</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="15.75">
+    <row r="234" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="15" t="s">
-        <v>324</v>
+        <v>569</v>
       </c>
       <c r="B234" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="15.75">
+    <row r="235" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" s="15" t="s">
-        <v>325</v>
+        <v>570</v>
       </c>
       <c r="B235" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="15.75">
+    <row r="236" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" s="19" t="s">
-        <v>326</v>
+        <v>270</v>
       </c>
       <c r="B236" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="15.75">
+    <row r="237" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A237" s="15" t="s">
-        <v>327</v>
+        <v>571</v>
       </c>
       <c r="B237" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="15.75">
+    <row r="238" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" s="15" t="s">
-        <v>328</v>
+        <v>271</v>
       </c>
       <c r="B238" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="31.5">
+    <row r="239" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" s="15" t="s">
-        <v>329</v>
+        <v>563</v>
       </c>
       <c r="B239" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="15.75">
+    <row r="240" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" s="15" t="s">
-        <v>330</v>
+        <v>572</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="15.75">
+    <row r="241" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" s="15" t="s">
-        <v>331</v>
+        <v>541</v>
       </c>
       <c r="B241" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="15.75">
+    <row r="242" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A242" s="15" t="s">
-        <v>332</v>
+        <v>274</v>
       </c>
       <c r="B242" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="15.75">
+    <row r="243" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A243" s="13" t="s">
-        <v>333</v>
+        <v>275</v>
       </c>
       <c r="B243" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="15.75">
+    <row r="244" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A244" s="19" t="s">
-        <v>334</v>
+        <v>276</v>
       </c>
       <c r="B244" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="31.5">
+    <row r="245" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A245" s="13" t="s">
-        <v>335</v>
+        <v>562</v>
       </c>
       <c r="B245" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="15.75">
+    <row r="246" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A246" s="13" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="B246" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="15.75">
+    <row r="247" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" s="20" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="B247" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="15.75">
+    <row r="248" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" s="13" t="s">
-        <v>338</v>
+        <v>279</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="15.75">
+    <row r="249" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" s="13" t="s">
-        <v>339</v>
+        <v>573</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="31.5">
+    <row r="250" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A250" s="13" t="s">
-        <v>340</v>
+        <v>281</v>
       </c>
       <c r="B250" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="15.75">
+    <row r="251" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A251" s="13" t="s">
-        <v>341</v>
+        <v>282</v>
       </c>
       <c r="B251" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="15.75">
+    <row r="252" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A252" s="13" t="s">
-        <v>342</v>
+        <v>574</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="31.5">
+    <row r="253" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" s="13" t="s">
-        <v>343</v>
+        <v>561</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="15.75">
+    <row r="254" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" s="13" t="s">
-        <v>344</v>
+        <v>542</v>
       </c>
       <c r="B254" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="15.75">
+    <row r="255" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A255" s="13" t="s">
-        <v>345</v>
+        <v>560</v>
       </c>
       <c r="B255" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="15.75">
+    <row r="256" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A256" s="13" t="s">
-        <v>346</v>
+        <v>286</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="15.75">
+    <row r="257" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A257" s="13" t="s">
-        <v>347</v>
+        <v>287</v>
       </c>
       <c r="B257" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="15.75">
+    <row r="258" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A258" s="13" t="s">
-        <v>348</v>
+        <v>543</v>
       </c>
       <c r="B258" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="15.75">
+    <row r="259" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A259" s="13" t="s">
-        <v>349</v>
+        <v>289</v>
       </c>
       <c r="B259" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="15.75">
+    <row r="260" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A260" s="13" t="s">
-        <v>350</v>
+        <v>544</v>
       </c>
       <c r="B260" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="15.75">
+    <row r="261" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A261" s="13" t="s">
-        <v>351</v>
+        <v>545</v>
       </c>
       <c r="B261" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="15.75">
+    <row r="262" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A262" s="15" t="s">
-        <v>352</v>
+        <v>575</v>
       </c>
       <c r="B262" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="15.75">
+    <row r="263" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A263" s="15" t="s">
-        <v>353</v>
+        <v>292</v>
       </c>
       <c r="B263" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="15.75">
+    <row r="264" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A264" s="13" t="s">
-        <v>354</v>
+        <v>576</v>
       </c>
       <c r="B264" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="15.75">
-      <c r="A265" s="19" t="s">
-        <v>355</v>
+    <row r="265" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A265" s="13" t="s">
+        <v>559</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" ht="15.75">
-      <c r="A266" s="15" t="s">
-        <v>356</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A266" s="19" t="s">
+        <v>546</v>
       </c>
       <c r="B266" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="15.75">
+    <row r="267" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A267" s="15" t="s">
-        <v>357</v>
+        <v>293</v>
       </c>
       <c r="B267" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="15.75">
+    <row r="268" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A268" s="15" t="s">
-        <v>358</v>
+        <v>558</v>
       </c>
       <c r="B268" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="31.5">
-      <c r="A269" s="19" t="s">
-        <v>359</v>
+    <row r="269" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A269" s="15" t="s">
+        <v>295</v>
       </c>
       <c r="B269" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="31.5">
-      <c r="A270" s="13" t="s">
-        <v>360</v>
+    <row r="270" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A270" s="19" t="s">
+        <v>557</v>
       </c>
       <c r="B270" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="15.75">
+    <row r="271" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A271" s="13" t="s">
-        <v>361</v>
+        <v>556</v>
       </c>
       <c r="B271" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="15.75">
+    <row r="272" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A272" s="13" t="s">
-        <v>362</v>
+        <v>555</v>
       </c>
       <c r="B272" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="15.75">
-      <c r="A273" s="22" t="s">
-        <v>363</v>
+    <row r="273" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A273" s="13" t="s">
+        <v>554</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" ht="15.75">
-      <c r="A274" s="15" t="s">
-        <v>364</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A274" s="22" t="s">
+        <v>298</v>
       </c>
       <c r="B274" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="31.5">
+    <row r="275" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A275" s="15" t="s">
-        <v>365</v>
+        <v>553</v>
       </c>
       <c r="B275" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="31.5">
+    <row r="276" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A276" s="15" t="s">
-        <v>366</v>
+        <v>552</v>
       </c>
       <c r="B276" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="31.5">
+    <row r="277" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A277" s="13" t="s">
-        <v>367</v>
+        <v>551</v>
       </c>
       <c r="B277" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="31.5">
+    <row r="278" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A278" s="13" t="s">
-        <v>368</v>
+        <v>299</v>
       </c>
       <c r="B278" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="31.5">
+    <row r="279" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A279" s="13" t="s">
-        <v>369</v>
+        <v>550</v>
       </c>
       <c r="B279" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="31.5">
+    <row r="280" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A280" s="13" t="s">
-        <v>370</v>
+        <v>301</v>
       </c>
       <c r="B280" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="31.5">
+    <row r="281" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A281" s="13" t="s">
-        <v>371</v>
+        <v>549</v>
       </c>
       <c r="B281" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="31.5">
+    <row r="282" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A282" s="13" t="s">
-        <v>372</v>
+        <v>548</v>
       </c>
       <c r="B282" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="15.75">
+    <row r="283" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A283" s="13" t="s">
-        <v>373</v>
+        <v>303</v>
       </c>
       <c r="B283" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="15.75">
+    <row r="284" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A284" s="13" t="s">
-        <v>374</v>
+        <v>304</v>
       </c>
       <c r="B284" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="15.75">
+    <row r="285" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A285" s="13" t="s">
-        <v>375</v>
+        <v>578</v>
       </c>
       <c r="B285" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="15.75">
-      <c r="A286" s="21" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" ht="15.75">
-      <c r="A287" s="22" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" ht="15.75">
-      <c r="A288" s="19" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="289" ht="15.75"/>
-    <row r="290" ht="15.75"/>
-    <row r="291" ht="15.75"/>
-    <row r="293" ht="15.75"/>
-    <row r="303" ht="15.75"/>
+    <row r="286" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A286" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="B286" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C72" xr:uid="{F597D623-D42C-274C-98A3-F4E31B15DD65}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C288">
       <sortCondition ref="B1:B72"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B287:B1048576 B1:B23 B265:B285 B25:B263">
+    <cfRule type="iconSet" priority="3">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="iconSet" priority="2">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B264">
     <cfRule type="iconSet" priority="1">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -5146,83 +5291,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EA6329-B8CA-41EF-A269-0E7163B4AD61}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="1">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1">
-        <v>300</v>
-      </c>
-      <c r="B1">
-        <v>600</v>
-      </c>
-      <c r="C1">
-        <f>A1*B1</f>
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <f>A1*A2</f>
-        <v>1500</v>
-      </c>
-      <c r="B3">
-        <f>B1*B2</f>
-        <v>3000</v>
-      </c>
-      <c r="C3">
-        <f>A3*B3</f>
-        <v>4500000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E18761-4738-7342-919E-DBA8DD895532}">
   <dimension ref="A1:I254"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.83203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="5"/>
+    <col min="5" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="17.100000000000001">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>88</v>
       </c>
@@ -5230,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>379</v>
+        <v>307</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>89</v>
@@ -5241,16 +5327,16 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="17.100000000000001">
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>380</v>
+        <v>308</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="33.950000000000003">
+    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>91</v>
       </c>
@@ -5258,7 +5344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.100000000000001">
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>92</v>
       </c>
@@ -5267,43 +5353,43 @@
       </c>
       <c r="C4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="17.100000000000001">
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>381</v>
+        <v>309</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="17.100000000000001">
+    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>382</v>
+        <v>310</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="17.100000000000001">
+    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>383</v>
+        <v>311</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="17.100000000000001">
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>384</v>
+        <v>312</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="17.100000000000001">
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>96</v>
       </c>
@@ -5312,155 +5398,155 @@
       </c>
       <c r="C9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="33.950000000000003">
+    <row r="10" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>385</v>
+        <v>313</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="17.100000000000001">
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>386</v>
+        <v>314</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="53.1" customHeight="1">
+    <row r="12" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>387</v>
+        <v>315</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="17.100000000000001">
+    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>388</v>
+        <v>316</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="33.950000000000003">
+    <row r="14" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>389</v>
+        <v>317</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="17.100000000000001">
+    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="17.100000000000001">
+    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>390</v>
+        <v>318</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="14"/>
     </row>
-    <row r="17" spans="1:3" ht="17.100000000000001">
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>391</v>
+        <v>319</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="14"/>
     </row>
-    <row r="18" spans="1:3" ht="17.100000000000001">
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="14"/>
     </row>
-    <row r="19" spans="1:3" ht="17.100000000000001">
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="14"/>
     </row>
-    <row r="20" spans="1:3" ht="17.100000000000001">
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="14"/>
     </row>
-    <row r="21" spans="1:3" ht="33.950000000000003">
+    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>392</v>
+        <v>320</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="14"/>
     </row>
-    <row r="22" spans="1:3" ht="33.950000000000003">
+    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>393</v>
+        <v>321</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="14"/>
     </row>
-    <row r="23" spans="1:3" ht="33.950000000000003">
+    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="14"/>
     </row>
-    <row r="24" spans="1:3" ht="51">
+    <row r="24" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>395</v>
+        <v>323</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="14"/>
     </row>
-    <row r="25" spans="1:3" ht="68.099999999999994">
+    <row r="25" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>396</v>
+        <v>324</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="51">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>398</v>
+        <v>326</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>14</v>
@@ -5469,29 +5555,29 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="33.950000000000003">
+    <row r="27" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>399</v>
+        <v>327</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="33.950000000000003">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>401</v>
+        <v>329</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="14"/>
     </row>
-    <row r="29" spans="1:3" ht="33.950000000000003">
+    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>16</v>
@@ -5500,40 +5586,40 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="68.099999999999994">
+    <row r="30" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>402</v>
+        <v>330</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="14"/>
     </row>
-    <row r="31" spans="1:3" ht="68.099999999999994">
+    <row r="31" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>403</v>
+        <v>331</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="51">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>405</v>
+        <v>333</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="17.100000000000001">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>407</v>
+        <v>335</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>16</v>
@@ -5542,48 +5628,48 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="48.95" customHeight="1">
+    <row r="34" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>408</v>
+        <v>336</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="51">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>410</v>
+        <v>338</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="33.950000000000003">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>412</v>
+        <v>340</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="33.950000000000003">
+    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>413</v>
+        <v>341</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="5"/>
     </row>
-    <row r="38" spans="1:3" ht="17.100000000000001">
+    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>16</v>
@@ -5592,18 +5678,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="119.1">
+    <row r="39" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>414</v>
+        <v>342</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="5"/>
     </row>
-    <row r="40" spans="1:3" ht="17.100000000000001">
+    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>415</v>
+        <v>343</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>16</v>
@@ -5612,56 +5698,56 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="17.100000000000001">
+    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>416</v>
+        <v>344</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="51">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>417</v>
+        <v>345</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C42" s="5"/>
     </row>
-    <row r="43" spans="1:3" ht="57" customHeight="1">
+    <row r="43" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>418</v>
+        <v>346</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="5"/>
     </row>
-    <row r="44" spans="1:3" ht="17.100000000000001">
+    <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>419</v>
+        <v>347</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C44" s="14"/>
     </row>
-    <row r="45" spans="1:3" ht="68.099999999999994">
+    <row r="45" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>420</v>
+        <v>348</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="1:3" ht="17.100000000000001">
+    <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>421</v>
+        <v>349</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>16</v>
@@ -5670,9 +5756,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="17.100000000000001">
+    <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>422</v>
+        <v>350</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>16</v>
@@ -5681,71 +5767,71 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="94.5">
+    <row r="48" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>423</v>
+        <v>351</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="51">
+    <row r="49" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>424</v>
+        <v>352</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C49" s="5"/>
     </row>
-    <row r="50" spans="1:3" ht="33.950000000000003">
+    <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
-        <v>425</v>
+        <v>353</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C50" s="14"/>
     </row>
-    <row r="51" spans="1:3" ht="33.950000000000003">
+    <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
-        <v>426</v>
+        <v>354</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C51" s="5"/>
     </row>
-    <row r="52" spans="1:3" ht="33.950000000000003">
+    <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
-        <v>427</v>
+        <v>355</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C52" s="14"/>
     </row>
-    <row r="53" spans="1:3" ht="17.100000000000001">
+    <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>428</v>
+        <v>356</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C53" s="5"/>
     </row>
-    <row r="54" spans="1:3" ht="17.100000000000001">
+    <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
-        <v>429</v>
+        <v>357</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C54" s="5"/>
     </row>
-    <row r="55" spans="1:3" ht="17.100000000000001">
+    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>42</v>
@@ -5754,18 +5840,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="51">
+    <row r="56" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>430</v>
+        <v>358</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C56" s="5"/>
     </row>
-    <row r="57" spans="1:3" ht="135.94999999999999">
+    <row r="57" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
-        <v>431</v>
+        <v>359</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>42</v>
@@ -5774,9 +5860,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="68.099999999999994">
+    <row r="58" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
-        <v>432</v>
+        <v>360</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>42</v>
@@ -5785,9 +5871,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="17.100000000000001">
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>433</v>
+        <v>361</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>42</v>
@@ -5796,9 +5882,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="17.100000000000001">
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
-        <v>434</v>
+        <v>362</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>42</v>
@@ -5807,9 +5893,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="51">
+    <row r="61" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>435</v>
+        <v>363</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>42</v>
@@ -5818,9 +5904,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="33.950000000000003">
+    <row r="62" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>42</v>
@@ -5829,9 +5915,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="17.100000000000001">
+    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>42</v>
@@ -5840,9 +5926,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="17.100000000000001">
+    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>436</v>
+        <v>364</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>42</v>
@@ -5851,9 +5937,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="36" customHeight="1">
+    <row r="65" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>42</v>
@@ -5862,9 +5948,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="51">
+    <row r="66" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>437</v>
+        <v>365</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>42</v>
@@ -5873,9 +5959,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="17.100000000000001">
+    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>42</v>
@@ -5884,9 +5970,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="17.100000000000001">
+    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>42</v>
@@ -5895,9 +5981,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="33.950000000000003">
+    <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>42</v>
@@ -5906,9 +5992,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="33.950000000000003">
+    <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
-        <v>438</v>
+        <v>366</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>42</v>
@@ -5917,9 +6003,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="17.100000000000001">
+    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>42</v>
@@ -5928,9 +6014,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="33.950000000000003">
+    <row r="72" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>42</v>
@@ -5939,18 +6025,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="17.100000000000001">
+    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C73" s="14"/>
     </row>
-    <row r="74" spans="1:3" ht="51">
+    <row r="74" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
-        <v>439</v>
+        <v>367</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>54</v>
@@ -5959,9 +6045,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="17.100000000000001">
+    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
-        <v>440</v>
+        <v>368</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>54</v>
@@ -5970,52 +6056,52 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="17.100000000000001">
+    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
-        <v>441</v>
+        <v>369</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C76" s="14"/>
     </row>
-    <row r="77" spans="1:3" ht="33.950000000000003">
+    <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
-        <v>442</v>
+        <v>370</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="17.100000000000001">
+    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
-        <v>443</v>
+        <v>371</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C78" s="14"/>
     </row>
-    <row r="79" spans="1:3" ht="33.950000000000003">
+    <row r="79" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
-        <v>444</v>
+        <v>372</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="17.100000000000001">
+    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C80" s="14"/>
     </row>
-    <row r="81" spans="1:3" ht="51">
+    <row r="81" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
-        <v>445</v>
+        <v>373</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>56</v>
@@ -6024,45 +6110,45 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="17.100000000000001">
+    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
-        <v>446</v>
+        <v>374</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C82" s="5"/>
     </row>
-    <row r="83" spans="1:3" ht="33.950000000000003">
+    <row r="83" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
-        <v>275</v>
+        <v>230</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="1:3" ht="33.950000000000003">
+    <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
-        <v>447</v>
+        <v>375</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C84" s="5"/>
     </row>
-    <row r="85" spans="1:3" ht="17.100000000000001">
+    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
-        <v>448</v>
+        <v>376</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C85" s="5"/>
     </row>
-    <row r="86" spans="1:3" ht="17.100000000000001">
+    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
-        <v>449</v>
+        <v>377</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>56</v>
@@ -6071,27 +6157,27 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="33.950000000000003">
+    <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
-        <v>450</v>
+        <v>378</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C87" s="5"/>
     </row>
-    <row r="88" spans="1:3" ht="33.950000000000003">
+    <row r="88" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
-        <v>451</v>
+        <v>379</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="1:3" ht="17.100000000000001">
+    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
-        <v>452</v>
+        <v>380</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>56</v>
@@ -6100,18 +6186,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="17.100000000000001">
+    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
-        <v>453</v>
+        <v>381</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C90" s="14"/>
     </row>
-    <row r="91" spans="1:3" ht="17.100000000000001">
+    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
-        <v>454</v>
+        <v>382</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>58</v>
@@ -6120,16 +6206,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="15"/>
       <c r="B92" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C92" s="14"/>
     </row>
-    <row r="93" spans="1:3" ht="51">
+    <row r="93" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
-        <v>455</v>
+        <v>383</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>58</v>
@@ -6138,9 +6224,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="33.950000000000003">
+    <row r="94" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
-        <v>456</v>
+        <v>384</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>58</v>
@@ -6149,54 +6235,54 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="33.950000000000003">
+    <row r="95" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
-        <v>457</v>
+        <v>385</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="1:3" ht="17.100000000000001">
+    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
-        <v>289</v>
+        <v>240</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C96" s="14"/>
     </row>
-    <row r="97" spans="1:3" ht="17.100000000000001">
+    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C97" s="14"/>
     </row>
-    <row r="98" spans="1:3" ht="33.950000000000003">
+    <row r="98" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
-        <v>458</v>
+        <v>386</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C98" s="14"/>
     </row>
-    <row r="99" spans="1:3" ht="51">
+    <row r="99" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="s">
-        <v>459</v>
+        <v>387</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C99" s="14"/>
     </row>
-    <row r="100" spans="1:3" ht="51">
+    <row r="100" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="s">
-        <v>460</v>
+        <v>388</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>66</v>
@@ -6205,16 +6291,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="33.950000000000003">
+    <row r="101" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="s">
-        <v>461</v>
+        <v>389</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C101" s="5"/>
     </row>
-    <row r="102" spans="1:3" ht="17.100000000000001">
+    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
         <v>67</v>
       </c>
@@ -6223,27 +6309,27 @@
       </c>
       <c r="C102" s="5"/>
     </row>
-    <row r="103" spans="1:3" ht="33.950000000000003">
+    <row r="103" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="s">
-        <v>462</v>
+        <v>390</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C103" s="5"/>
     </row>
-    <row r="104" spans="1:3" ht="17.100000000000001">
+    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="s">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C104" s="5"/>
     </row>
-    <row r="105" spans="1:3" ht="33.950000000000003">
+    <row r="105" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="s">
-        <v>463</v>
+        <v>391</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>69</v>
@@ -6252,9 +6338,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="33.950000000000003">
+    <row r="106" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="s">
-        <v>464</v>
+        <v>392</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>69</v>
@@ -6263,9 +6349,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="17.100000000000001">
+    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
-        <v>465</v>
+        <v>393</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>73</v>
@@ -6274,9 +6360,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="17.100000000000001">
+    <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="15" t="s">
-        <v>308</v>
+        <v>256</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>73</v>
@@ -6285,9 +6371,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="51.95" customHeight="1">
+    <row r="109" spans="1:3" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="s">
-        <v>309</v>
+        <v>257</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>73</v>
@@ -6296,9 +6382,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="17.100000000000001">
+    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="15" t="s">
-        <v>310</v>
+        <v>258</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>73</v>
@@ -6307,45 +6393,45 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="68.099999999999994">
+    <row r="111" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A111" s="15" t="s">
-        <v>466</v>
+        <v>394</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C111" s="5"/>
     </row>
-    <row r="112" spans="1:3" ht="17.100000000000001">
+    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C112" s="5"/>
     </row>
-    <row r="113" spans="1:3" ht="17.100000000000001">
+    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C113" s="5"/>
     </row>
-    <row r="114" spans="1:3" ht="17.100000000000001">
+    <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C114" s="5"/>
     </row>
-    <row r="115" spans="1:3" ht="17.100000000000001">
+    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>73</v>
@@ -6354,18 +6440,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="17.100000000000001">
+    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C116" s="5"/>
     </row>
-    <row r="117" spans="1:3" ht="17.100000000000001">
+    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="15" t="s">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>73</v>
@@ -6374,18 +6460,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="17.100000000000001">
+    <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="15" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C118" s="5"/>
     </row>
-    <row r="119" spans="1:3" ht="33.950000000000003">
+    <row r="119" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="15" t="s">
-        <v>467</v>
+        <v>395</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>73</v>
@@ -6394,18 +6480,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="17.100000000000001">
+    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="15" t="s">
-        <v>321</v>
+        <v>266</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C120" s="5"/>
     </row>
-    <row r="121" spans="1:3" ht="33.950000000000003">
+    <row r="121" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A121" s="15" t="s">
-        <v>468</v>
+        <v>396</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>73</v>
@@ -6414,9 +6500,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="33.950000000000003">
+    <row r="122" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="15" t="s">
-        <v>323</v>
+        <v>268</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>73</v>
@@ -6425,9 +6511,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="33.950000000000003">
+    <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="15" t="s">
-        <v>469</v>
+        <v>397</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>73</v>
@@ -6436,9 +6522,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="17.100000000000001">
+    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="15" t="s">
-        <v>325</v>
+        <v>269</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>73</v>
@@ -6447,9 +6533,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="33.950000000000003">
+    <row r="125" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A125" s="15" t="s">
-        <v>470</v>
+        <v>398</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>73</v>
@@ -6458,27 +6544,27 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="17.100000000000001">
+    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="15" t="s">
-        <v>328</v>
+        <v>271</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C126" s="5"/>
     </row>
-    <row r="127" spans="1:3" ht="33.950000000000003">
+    <row r="127" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A127" s="15" t="s">
-        <v>329</v>
+        <v>272</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C127" s="14"/>
     </row>
-    <row r="128" spans="1:3" ht="17.100000000000001">
+    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="15" t="s">
-        <v>471</v>
+        <v>399</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>73</v>
@@ -6487,18 +6573,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="17.100000000000001">
+    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
-        <v>331</v>
+        <v>273</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C129" s="5"/>
     </row>
-    <row r="130" spans="1:3" ht="17.100000000000001">
+    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="15" t="s">
-        <v>472</v>
+        <v>400</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>73</v>
@@ -6507,9 +6593,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="33.950000000000003">
+    <row r="131" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A131" s="15" t="s">
-        <v>473</v>
+        <v>401</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>75</v>
@@ -6518,9 +6604,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="17.100000000000001">
+    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
-        <v>474</v>
+        <v>402</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>75</v>
@@ -6529,9 +6615,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="33.950000000000003">
+    <row r="133" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A133" s="15" t="s">
-        <v>475</v>
+        <v>403</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>79</v>
@@ -6540,18 +6626,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="17.100000000000001">
+    <row r="134" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="15" t="s">
-        <v>357</v>
+        <v>294</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C134" s="14"/>
     </row>
-    <row r="135" spans="1:3" ht="17.100000000000001">
+    <row r="135" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="15" t="s">
-        <v>476</v>
+        <v>404</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>79</v>
@@ -6560,9 +6646,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="17.100000000000001">
+    <row r="136" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="15" t="s">
-        <v>358</v>
+        <v>295</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>79</v>
@@ -6571,196 +6657,196 @@
         <v>81</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="51">
+    <row r="137" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A137" s="15" t="s">
-        <v>477</v>
+        <v>405</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C137" s="14"/>
     </row>
-    <row r="138" spans="1:3" ht="33.950000000000003">
+    <row r="138" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A138" s="15" t="s">
-        <v>478</v>
+        <v>406</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C138" s="14"/>
     </row>
-    <row r="139" spans="1:3" ht="51">
+    <row r="139" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A139" s="15" t="s">
-        <v>479</v>
+        <v>407</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C139" s="14"/>
     </row>
-    <row r="140" spans="1:3" ht="17.100000000000001">
+    <row r="140" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="13" t="s">
-        <v>333</v>
+        <v>275</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="17.100000000000001">
+    <row r="141" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="33.950000000000003">
+    <row r="142" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A142" s="13" t="s">
-        <v>480</v>
+        <v>408</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="33.950000000000003">
+    <row r="143" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
-        <v>481</v>
+        <v>409</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="17.100000000000001">
+    <row r="144" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
-        <v>482</v>
+        <v>410</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="33.950000000000003">
+    <row r="145" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A145" s="13" t="s">
-        <v>483</v>
+        <v>411</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="17.100000000000001">
+    <row r="146" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="13" t="s">
-        <v>484</v>
+        <v>412</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="33.950000000000003">
+    <row r="147" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="17.100000000000001">
+    <row r="148" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="13" t="s">
-        <v>485</v>
+        <v>413</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="17.100000000000001">
+    <row r="149" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="16" t="s">
-        <v>486</v>
+        <v>414</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="33.950000000000003">
+    <row r="151" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
-        <v>487</v>
+        <v>415</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="17.100000000000001">
+    <row r="152" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="13" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="17.100000000000001">
+    <row r="153" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="33.950000000000003">
+    <row r="154" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A154" s="13" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="68.099999999999994">
+    <row r="155" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A155" s="13" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="51">
+    <row r="156" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A156" s="13" t="s">
-        <v>488</v>
+        <v>416</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="68.099999999999994">
+    <row r="157" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A157" s="13" t="s">
-        <v>489</v>
+        <v>417</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="17.100000000000001">
+    <row r="158" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="13" t="s">
-        <v>338</v>
+        <v>279</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="33.950000000000003">
+    <row r="159" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A159" s="13" t="s">
-        <v>368</v>
+        <v>299</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="102">
+    <row r="160" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A160" s="13" t="s">
-        <v>490</v>
+        <v>418</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>31</v>
@@ -6769,17 +6855,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="84.95">
+    <row r="161" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A161" s="13" t="s">
-        <v>491</v>
+        <v>419</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="51">
+    <row r="162" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A162" s="13" t="s">
-        <v>492</v>
+        <v>420</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>42</v>
@@ -6788,65 +6874,65 @@
         <v>46</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="33.950000000000003">
+    <row r="163" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A163" s="13" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15.75">
+    <row r="164" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="13" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="33.950000000000003">
+    <row r="165" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A165" s="13" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="17.100000000000001">
+    <row r="166" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="13" t="s">
-        <v>339</v>
+        <v>280</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="33.950000000000003">
+    <row r="167" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A167" s="13" t="s">
-        <v>493</v>
+        <v>421</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="33.950000000000003">
+    <row r="168" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A168" s="13" t="s">
-        <v>369</v>
+        <v>300</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="33.950000000000003">
+    <row r="169" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A169" s="13" t="s">
-        <v>370</v>
+        <v>301</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="68.099999999999994">
+    <row r="170" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A170" s="13" t="s">
-        <v>494</v>
+        <v>422</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>31</v>
@@ -6855,9 +6941,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="33.950000000000003">
+    <row r="171" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A171" s="13" t="s">
-        <v>495</v>
+        <v>423</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>42</v>
@@ -6866,65 +6952,65 @@
         <v>46</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="33.950000000000003">
+    <row r="172" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A172" s="13" t="s">
-        <v>496</v>
+        <v>424</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="33.950000000000003">
+    <row r="173" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A173" s="13" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="33.950000000000003">
+    <row r="174" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A174" s="13" t="s">
-        <v>497</v>
+        <v>425</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="51">
+    <row r="175" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A175" s="13" t="s">
-        <v>498</v>
+        <v>426</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="17.100000000000001">
+    <row r="176" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="13" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="51">
+    <row r="177" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A177" s="13" t="s">
-        <v>499</v>
+        <v>427</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="17.100000000000001">
+    <row r="178" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="13" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="68.099999999999994">
+    <row r="179" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A179" s="13" t="s">
-        <v>500</v>
+        <v>428</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>42</v>
@@ -6933,33 +7019,33 @@
         <v>46</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="102">
+    <row r="180" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A180" s="13" t="s">
-        <v>501</v>
+        <v>429</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="33.950000000000003">
+    <row r="181" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A181" s="13" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="17.100000000000001">
+    <row r="182" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="13" t="s">
-        <v>341</v>
+        <v>282</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="33.950000000000003">
+    <row r="183" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A183" s="13" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>16</v>
@@ -6968,33 +7054,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="51">
+    <row r="184" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A184" s="13" t="s">
-        <v>502</v>
+        <v>430</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="33.950000000000003">
+    <row r="185" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A185" s="18" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="17.100000000000001">
+    <row r="186" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="13" t="s">
-        <v>503</v>
+        <v>431</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="84.95">
+    <row r="187" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A187" s="13" t="s">
-        <v>504</v>
+        <v>432</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>31</v>
@@ -7003,57 +7089,57 @@
         <v>34</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="17.100000000000001">
+    <row r="188" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="13" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="17.100000000000001">
+    <row r="189" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="13" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="33.950000000000003">
+    <row r="190" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A190" s="13" t="s">
-        <v>343</v>
+        <v>283</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="33.950000000000003">
+    <row r="191" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A191" s="13" t="s">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="17.100000000000001">
+    <row r="192" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="13" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="33.950000000000003">
+    <row r="193" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A193" s="13" t="s">
-        <v>505</v>
+        <v>433</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="84.95">
+    <row r="194" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A194" s="13" t="s">
-        <v>506</v>
+        <v>434</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>42</v>
@@ -7062,12 +7148,12 @@
         <v>46</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="33.950000000000003">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A195" s="13" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>42</v>
@@ -7076,17 +7162,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="17.100000000000001">
+    <row r="196" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="13" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="33.950000000000003">
+    <row r="197" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A197" s="13" t="s">
-        <v>507</v>
+        <v>435</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>42</v>
@@ -7095,17 +7181,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="33.950000000000003">
+    <row r="198" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A198" s="13" t="s">
-        <v>508</v>
+        <v>436</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="33.950000000000003">
+    <row r="199" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A199" s="13" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>16</v>
@@ -7114,25 +7200,25 @@
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="17.100000000000001">
+    <row r="200" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="13" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="17.100000000000001">
+    <row r="201" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="13" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="68.099999999999994">
+    <row r="202" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A202" s="13" t="s">
-        <v>509</v>
+        <v>437</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>79</v>
@@ -7141,9 +7227,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="17.100000000000001">
+    <row r="203" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="13" t="s">
-        <v>361</v>
+        <v>296</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>79</v>
@@ -7152,17 +7238,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="33.950000000000003">
+    <row r="204" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A204" s="13" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="17.100000000000001">
+    <row r="205" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="13" t="s">
-        <v>362</v>
+        <v>297</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>79</v>
@@ -7171,113 +7257,113 @@
         <v>81</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="33.950000000000003">
+    <row r="206" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A206" s="13" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="17.100000000000001">
+    <row r="207" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="13" t="s">
-        <v>344</v>
+        <v>284</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="33.950000000000003">
+    <row r="208" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A208" s="13" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="51">
+    <row r="209" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A209" s="13" t="s">
-        <v>510</v>
+        <v>438</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="17.100000000000001">
+    <row r="210" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" s="13" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="33.950000000000003">
+    <row r="211" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A211" s="13" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="68.099999999999994">
+    <row r="212" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A212" s="13" t="s">
-        <v>511</v>
+        <v>439</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="17.100000000000001">
+    <row r="213" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="13" t="s">
-        <v>345</v>
+        <v>285</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="17.100000000000001">
+    <row r="214" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" s="13" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="17.100000000000001">
+    <row r="215" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" s="13" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="17.100000000000001">
+    <row r="216" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" s="13" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="51">
+    <row r="217" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A217" s="13" t="s">
-        <v>512</v>
+        <v>440</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="33.950000000000003">
+    <row r="218" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A218" s="13" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="68.099999999999994">
+    <row r="219" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A219" s="13" t="s">
-        <v>513</v>
+        <v>441</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>42</v>
@@ -7286,9 +7372,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="33.950000000000003">
+    <row r="220" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A220" s="13" t="s">
-        <v>514</v>
+        <v>442</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>16</v>
@@ -7297,25 +7383,25 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="33.950000000000003">
+    <row r="221" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A221" s="13" t="s">
-        <v>302</v>
+        <v>252</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="33.950000000000003">
+    <row r="222" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A222" s="13" t="s">
-        <v>515</v>
+        <v>443</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="33.950000000000003">
+    <row r="223" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A223" s="13" t="s">
-        <v>516</v>
+        <v>444</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>16</v>
@@ -7324,25 +7410,25 @@
         <v>23</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="17.100000000000001">
+    <row r="224" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" s="13" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="33.950000000000003">
+    <row r="225" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A225" s="13" t="s">
-        <v>517</v>
+        <v>445</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="17.100000000000001">
+    <row r="226" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A226" s="13" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="B226" s="4" t="s">
         <v>42</v>
@@ -7351,36 +7437,36 @@
         <v>46</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="17.100000000000001">
+    <row r="227" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" s="13" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="68.099999999999994">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A228" s="13" t="s">
-        <v>518</v>
+        <v>446</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="33.950000000000003">
+    <row r="229" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A229" s="13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="17.100000000000001">
+    <row r="230" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" s="13" t="s">
-        <v>519</v>
+        <v>447</v>
       </c>
       <c r="B230" s="4" t="s">
         <v>75</v>
@@ -7389,202 +7475,202 @@
         <v>21</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="17.100000000000001">
+    <row r="231" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" s="13" t="s">
-        <v>346</v>
+        <v>286</v>
       </c>
       <c r="B231" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="33.950000000000003">
+    <row r="232" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A232" s="13" t="s">
-        <v>520</v>
+        <v>448</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="51">
+    <row r="233" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A233" s="13" t="s">
-        <v>521</v>
+        <v>449</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="68.099999999999994">
+    <row r="234" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A234" s="13" t="s">
-        <v>522</v>
+        <v>450</v>
       </c>
       <c r="B234" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" ht="68.099999999999994">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A235" s="13" t="s">
-        <v>524</v>
+        <v>452</v>
       </c>
       <c r="B235" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="17.100000000000001">
+    <row r="236" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" s="13" t="s">
-        <v>347</v>
+        <v>287</v>
       </c>
       <c r="B236" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="33.950000000000003">
+    <row r="237" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A237" s="13" t="s">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="B237" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="17.100000000000001">
+    <row r="238" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" s="13" t="s">
-        <v>348</v>
+        <v>288</v>
       </c>
       <c r="B238" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="17.100000000000001">
+    <row r="239" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" s="13" t="s">
-        <v>525</v>
+        <v>453</v>
       </c>
       <c r="B239" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="33.950000000000003">
+    <row r="240" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A240" s="13" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="33.950000000000003">
+    <row r="241" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A241" s="13" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B241" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="51">
+    <row r="242" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A242" s="13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B242" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="33.950000000000003">
+    <row r="243" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A243" s="13" t="s">
-        <v>526</v>
+        <v>454</v>
       </c>
       <c r="B243" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="17.100000000000001">
+    <row r="244" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A244" s="13" t="s">
-        <v>349</v>
+        <v>289</v>
       </c>
       <c r="B244" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="51">
+    <row r="245" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A245" s="13" t="s">
-        <v>527</v>
+        <v>455</v>
       </c>
       <c r="B245" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="17.100000000000001">
+    <row r="246" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A246" s="13" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="B246" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="17.100000000000001">
+    <row r="247" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" s="13" t="s">
-        <v>528</v>
+        <v>456</v>
       </c>
       <c r="B247" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="33.950000000000003">
+    <row r="248" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A248" s="13" t="s">
-        <v>529</v>
+        <v>457</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="17.100000000000001">
+    <row r="249" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" s="13" t="s">
-        <v>530</v>
+        <v>458</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="17.100000000000001">
+    <row r="250" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A250" s="13" t="s">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="B250" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="17.100000000000001">
+    <row r="251" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A251" s="13" t="s">
-        <v>303</v>
+        <v>253</v>
       </c>
       <c r="B251" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="17.100000000000001">
+    <row r="252" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A252" s="13" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="17.100000000000001">
+    <row r="253" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" s="13" t="s">
-        <v>351</v>
+        <v>291</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="17.100000000000001">
+    <row r="254" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" s="13" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B254" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -7607,79 +7693,75 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FD43EC-902F-9C45-9900-EECCF5C6E1A4}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.375" customWidth="1"/>
-    <col min="2" max="3" width="32.125" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="3" width="32.1640625" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.100000000000001">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>531</v>
+        <v>459</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>532</v>
+        <v>460</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>533</v>
+        <v>461</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>535</v>
+        <v>463</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>536</v>
+        <v>464</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>537</v>
+        <v>465</v>
       </c>
       <c r="C3" t="s">
-        <v>538</v>
+        <v>466</v>
       </c>
       <c r="D3" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>540</v>
+        <v>468</v>
       </c>
       <c r="B4" t="s">
-        <v>541</v>
+        <v>469</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>542</v>
+        <v>470</v>
       </c>
       <c r="B5" t="s">
-        <v>543</v>
+        <v>471</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -7693,13 +7775,61 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EA6329-B8CA-41EF-A269-0E7163B4AD61}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>300</v>
+      </c>
+      <c r="B1">
+        <v>600</v>
+      </c>
+      <c r="C1">
+        <f>A1*B1</f>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f>A1*A2</f>
+        <v>1500</v>
+      </c>
+      <c r="B3">
+        <f>B1*B2</f>
+        <v>3000</v>
+      </c>
+      <c r="C3">
+        <f>A3*B3</f>
+        <v>4500000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002C2CD1DD118472458A0E6161F2144773" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d6e70606a31341017029f9eff1eb720b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0afe7543-80e5-4676-a63d-5a4feeb00470" xmlns:ns3="0accda53-abec-4882-afe9-cc0ba02332f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b75b586682df3983c7d47b6a8e259e8b" ns2:_="" ns3:_="">
     <xsd:import namespace="0afe7543-80e5-4676-a63d-5a4feeb00470"/>
@@ -7910,6 +8040,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7920,13 +8056,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD2911FF-F89D-4904-8999-6B7B74F09443}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70C858A0-B59C-47E8-A200-4A6AAC57C6A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0afe7543-80e5-4676-a63d-5a4feeb00470"/>
+    <ds:schemaRef ds:uri="0accda53-abec-4882-afe9-cc0ba02332f1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70C858A0-B59C-47E8-A200-4A6AAC57C6A6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD2911FF-F89D-4904-8999-6B7B74F09443}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73852CBC-2E2A-43EB-ADAD-FD0ACC658E1E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73852CBC-2E2A-43EB-ADAD-FD0ACC658E1E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/annotations/indicators_and_annotations-v4.xlsx
+++ b/data/annotations/indicators_and_annotations-v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreab/Dropbox/DRBX_Docs/Work/Projects/github_projects/museums-in-the-pandemic/data/annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2DC2EE-ACE6-5D4B-AAC4-A13A2B1E7599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7D50FC-298D-9B45-9CBB-D237F90C3884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="500" windowWidth="18340" windowHeight="16660" activeTab="1" xr2:uid="{B946F43B-58A6-4248-B453-C61D9D19EABF}"/>
+    <workbookView xWindow="4860" yWindow="500" windowWidth="18340" windowHeight="16620" activeTab="1" xr2:uid="{B946F43B-58A6-4248-B453-C61D9D19EABF}"/>
   </bookViews>
   <sheets>
     <sheet name="indicators" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="591">
   <si>
     <t>indicator_code</t>
   </si>
@@ -1747,9 +1747,6 @@
     <t>Event dates for  will be posted here shortly  </t>
   </si>
   <si>
-    <t>Our hopes for   </t>
-  </si>
-  <si>
     <t xml:space="preserve">We hope and pray that we can bring some of our amazing special events to you in </t>
   </si>
   <si>
@@ -1817,6 +1814,9 @@
   </si>
   <si>
     <t>new blog</t>
+  </si>
+  <si>
+    <t>we can reopen </t>
   </si>
 </sst>
 </file>
@@ -1863,7 +1863,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2941,11 +2941,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41342B3E-BD7C-48C6-BFD3-6EEAFC746026}">
-  <dimension ref="A1:H286"/>
+  <dimension ref="A1:H285"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A165" sqref="A165"/>
+      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A248" sqref="A248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3052,7 +3052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>99</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>527</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
         <v>121</v>
       </c>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="51" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="22" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>14</v>
@@ -3468,7 +3468,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="s">
         <v>145</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="21" t="s">
         <v>156</v>
       </c>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="177" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="21" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>54</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="187" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="21" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>56</v>
@@ -4462,7 +4462,7 @@
     </row>
     <row r="188" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="21" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>56</v>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="193" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>56</v>
@@ -4558,7 +4558,7 @@
     </row>
     <row r="200" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>58</v>
@@ -4566,7 +4566,7 @@
     </row>
     <row r="201" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="21" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>60</v>
@@ -4630,7 +4630,7 @@
     </row>
     <row r="209" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" s="15" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>66</v>
@@ -4694,7 +4694,7 @@
     </row>
     <row r="217" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" s="15" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>69</v>
@@ -4702,7 +4702,7 @@
     </row>
     <row r="218" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A218" s="13" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>69</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="219" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" s="15" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>73</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="220" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" s="15" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>73</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="227" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" s="15" t="s">
-        <v>567</v>
+        <v>263</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>73</v>
@@ -4782,7 +4782,7 @@
     </row>
     <row r="228" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" s="15" t="s">
-        <v>263</v>
+        <v>511</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>73</v>
@@ -4790,7 +4790,7 @@
     </row>
     <row r="229" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" s="15" t="s">
-        <v>511</v>
+        <v>578</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>73</v>
@@ -4798,7 +4798,7 @@
     </row>
     <row r="230" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" s="15" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="B230" s="4" t="s">
         <v>73</v>
@@ -4806,21 +4806,21 @@
     </row>
     <row r="231" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" s="15" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B231" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A232" s="15" t="s">
-        <v>267</v>
+        <v>567</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" s="15" t="s">
         <v>568</v>
       </c>
@@ -4837,16 +4837,16 @@
       </c>
     </row>
     <row r="235" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A235" s="15" t="s">
+      <c r="A235" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A236" s="15" t="s">
         <v>570</v>
-      </c>
-      <c r="B235" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A236" s="19" t="s">
-        <v>270</v>
       </c>
       <c r="B236" s="4" t="s">
         <v>73</v>
@@ -4854,7 +4854,7 @@
     </row>
     <row r="237" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A237" s="15" t="s">
-        <v>571</v>
+        <v>271</v>
       </c>
       <c r="B237" s="4" t="s">
         <v>73</v>
@@ -4862,7 +4862,7 @@
     </row>
     <row r="238" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" s="15" t="s">
-        <v>271</v>
+        <v>563</v>
       </c>
       <c r="B238" s="4" t="s">
         <v>73</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="239" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" s="15" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="B239" s="4" t="s">
         <v>73</v>
@@ -4878,7 +4878,7 @@
     </row>
     <row r="240" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" s="15" t="s">
-        <v>572</v>
+        <v>541</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>73</v>
@@ -4886,31 +4886,31 @@
     </row>
     <row r="241" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" s="15" t="s">
-        <v>541</v>
+        <v>274</v>
       </c>
       <c r="B241" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A242" s="15" t="s">
-        <v>274</v>
+      <c r="A242" s="13" t="s">
+        <v>275</v>
       </c>
       <c r="B242" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A243" s="13" t="s">
-        <v>275</v>
+      <c r="A243" s="19" t="s">
+        <v>276</v>
       </c>
       <c r="B243" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A244" s="19" t="s">
-        <v>276</v>
+      <c r="A244" s="13" t="s">
+        <v>562</v>
       </c>
       <c r="B244" s="4" t="s">
         <v>73</v>
@@ -4918,23 +4918,23 @@
     </row>
     <row r="245" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A245" s="13" t="s">
-        <v>562</v>
+        <v>277</v>
       </c>
       <c r="B245" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A246" s="13" t="s">
-        <v>277</v>
+      <c r="A246" s="20" t="s">
+        <v>278</v>
       </c>
       <c r="B246" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A247" s="20" t="s">
-        <v>278</v>
+      <c r="A247" s="13" t="s">
+        <v>279</v>
       </c>
       <c r="B247" s="4" t="s">
         <v>73</v>
@@ -4942,23 +4942,23 @@
     </row>
     <row r="248" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" s="13" t="s">
-        <v>279</v>
+        <v>572</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A249" s="13" t="s">
-        <v>573</v>
+        <v>281</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A250" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B250" s="4" t="s">
         <v>73</v>
@@ -4966,7 +4966,7 @@
     </row>
     <row r="251" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A251" s="13" t="s">
-        <v>282</v>
+        <v>573</v>
       </c>
       <c r="B251" s="4" t="s">
         <v>73</v>
@@ -4974,7 +4974,7 @@
     </row>
     <row r="252" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A252" s="13" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>73</v>
@@ -4982,7 +4982,7 @@
     </row>
     <row r="253" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" s="13" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>73</v>
@@ -4990,7 +4990,7 @@
     </row>
     <row r="254" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" s="13" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="B254" s="4" t="s">
         <v>73</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="255" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A255" s="13" t="s">
-        <v>560</v>
+        <v>286</v>
       </c>
       <c r="B255" s="4" t="s">
         <v>73</v>
@@ -5006,7 +5006,7 @@
     </row>
     <row r="256" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A256" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>73</v>
@@ -5014,7 +5014,7 @@
     </row>
     <row r="257" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A257" s="13" t="s">
-        <v>287</v>
+        <v>543</v>
       </c>
       <c r="B257" s="4" t="s">
         <v>73</v>
@@ -5022,7 +5022,7 @@
     </row>
     <row r="258" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A258" s="13" t="s">
-        <v>543</v>
+        <v>289</v>
       </c>
       <c r="B258" s="4" t="s">
         <v>73</v>
@@ -5030,7 +5030,7 @@
     </row>
     <row r="259" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A259" s="13" t="s">
-        <v>289</v>
+        <v>544</v>
       </c>
       <c r="B259" s="4" t="s">
         <v>73</v>
@@ -5038,31 +5038,31 @@
     </row>
     <row r="260" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A260" s="13" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B260" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A261" s="13" t="s">
-        <v>545</v>
+      <c r="A261" s="15" t="s">
+        <v>574</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A262" s="15" t="s">
-        <v>575</v>
+        <v>292</v>
       </c>
       <c r="B262" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A263" s="15" t="s">
-        <v>292</v>
+      <c r="A263" s="13" t="s">
+        <v>575</v>
       </c>
       <c r="B263" s="4" t="s">
         <v>75</v>
@@ -5070,23 +5070,23 @@
     </row>
     <row r="264" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A264" s="13" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="B264" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A265" s="13" t="s">
-        <v>559</v>
+      <c r="A265" s="19" t="s">
+        <v>546</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A266" s="19" t="s">
-        <v>546</v>
+      <c r="A266" s="15" t="s">
+        <v>293</v>
       </c>
       <c r="B266" s="4" t="s">
         <v>79</v>
@@ -5094,7 +5094,7 @@
     </row>
     <row r="267" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A267" s="15" t="s">
-        <v>293</v>
+        <v>558</v>
       </c>
       <c r="B267" s="4" t="s">
         <v>79</v>
@@ -5102,31 +5102,31 @@
     </row>
     <row r="268" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A268" s="15" t="s">
-        <v>558</v>
+        <v>295</v>
       </c>
       <c r="B268" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A269" s="15" t="s">
-        <v>295</v>
+    <row r="269" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A269" s="19" t="s">
+        <v>557</v>
       </c>
       <c r="B269" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A270" s="19" t="s">
-        <v>557</v>
+      <c r="A270" s="13" t="s">
+        <v>556</v>
       </c>
       <c r="B270" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A271" s="13" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B271" s="4" t="s">
         <v>79</v>
@@ -5134,39 +5134,39 @@
     </row>
     <row r="272" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A272" s="13" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B272" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A273" s="13" t="s">
-        <v>554</v>
+      <c r="A273" s="22" t="s">
+        <v>298</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A274" s="22" t="s">
-        <v>298</v>
+      <c r="A274" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A275" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B275" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A276" s="15" t="s">
-        <v>552</v>
+      <c r="A276" s="13" t="s">
+        <v>551</v>
       </c>
       <c r="B276" s="4" t="s">
         <v>86</v>
@@ -5174,7 +5174,7 @@
     </row>
     <row r="277" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A277" s="13" t="s">
-        <v>551</v>
+        <v>299</v>
       </c>
       <c r="B277" s="4" t="s">
         <v>86</v>
@@ -5182,23 +5182,23 @@
     </row>
     <row r="278" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A278" s="13" t="s">
-        <v>299</v>
+        <v>550</v>
       </c>
       <c r="B278" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A279" s="13" t="s">
-        <v>550</v>
+        <v>301</v>
       </c>
       <c r="B279" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A280" s="13" t="s">
-        <v>301</v>
+        <v>549</v>
       </c>
       <c r="B280" s="4" t="s">
         <v>86</v>
@@ -5206,7 +5206,7 @@
     </row>
     <row r="281" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A281" s="13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B281" s="4" t="s">
         <v>86</v>
@@ -5214,7 +5214,7 @@
     </row>
     <row r="282" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A282" s="13" t="s">
-        <v>548</v>
+        <v>303</v>
       </c>
       <c r="B282" s="4" t="s">
         <v>86</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="283" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A283" s="13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B283" s="4" t="s">
         <v>86</v>
@@ -5230,25 +5230,17 @@
     </row>
     <row r="284" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A284" s="13" t="s">
-        <v>304</v>
+        <v>577</v>
       </c>
       <c r="B284" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A285" s="13" t="s">
-        <v>578</v>
-      </c>
-      <c r="B285" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A286" s="19" t="s">
+      <c r="A285" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="B286" s="23" t="s">
+      <c r="B285" s="23" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5258,7 +5250,7 @@
       <sortCondition ref="B1:B72"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="B287:B1048576 B1:B23 B265:B285 B25:B263">
+  <conditionalFormatting sqref="B286:B1048576 B1:B23 B264:B284 B25:B262">
     <cfRule type="iconSet" priority="3">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -5276,7 +5268,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B264">
+  <conditionalFormatting sqref="B263">
     <cfRule type="iconSet" priority="1">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -7830,6 +7822,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002C2CD1DD118472458A0E6161F2144773" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d6e70606a31341017029f9eff1eb720b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0afe7543-80e5-4676-a63d-5a4feeb00470" xmlns:ns3="0accda53-abec-4882-afe9-cc0ba02332f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b75b586682df3983c7d47b6a8e259e8b" ns2:_="" ns3:_="">
     <xsd:import namespace="0afe7543-80e5-4676-a63d-5a4feeb00470"/>
@@ -8040,12 +8038,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -8056,6 +8048,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD2911FF-F89D-4904-8999-6B7B74F09443}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70C858A0-B59C-47E8-A200-4A6AAC57C6A6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8074,15 +8075,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD2911FF-F89D-4904-8999-6B7B74F09443}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73852CBC-2E2A-43EB-ADAD-FD0ACC658E1E}">
   <ds:schemaRefs>

--- a/data/annotations/indicators_and_annotations-v4.xlsx
+++ b/data/annotations/indicators_and_annotations-v4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreab/Dropbox/DRBX_Docs/Work/Projects/github_projects/museums-in-the-pandemic/data/annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7D50FC-298D-9B45-9CBB-D237F90C3884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FCED4F-8D8E-254C-AF3F-69D7C9F5F838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4860" yWindow="500" windowWidth="18340" windowHeight="16620" activeTab="1" xr2:uid="{B946F43B-58A6-4248-B453-C61D9D19EABF}"/>
   </bookViews>
@@ -741,9 +741,6 @@
     <t>live online  </t>
   </si>
   <si>
-    <t>forthcoming events at Home </t>
-  </si>
-  <si>
     <t>online event </t>
   </si>
   <si>
@@ -1817,6 +1814,9 @@
   </si>
   <si>
     <t>we can reopen </t>
+  </si>
+  <si>
+    <t>forthcoming online events</t>
   </si>
 </sst>
 </file>
@@ -2944,8 +2944,8 @@
   <dimension ref="A1:H285"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A248" sqref="A248"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -3022,7 +3022,7 @@
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>3</v>
@@ -3046,7 +3046,7 @@
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>3</v>
@@ -3062,7 +3062,7 @@
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>3</v>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>3</v>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>3</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>3</v>
@@ -3110,7 +3110,7 @@
     </row>
     <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>3</v>
@@ -3126,7 +3126,7 @@
     </row>
     <row r="21" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>3</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>3</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>3</v>
@@ -3158,7 +3158,7 @@
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>3</v>
@@ -3166,7 +3166,7 @@
     </row>
     <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>3</v>
@@ -3174,7 +3174,7 @@
     </row>
     <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>3</v>
@@ -3182,7 +3182,7 @@
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>3</v>
@@ -3214,7 +3214,7 @@
     </row>
     <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>3</v>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>3</v>
@@ -3246,7 +3246,7 @@
     </row>
     <row r="36" spans="1:2" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>3</v>
@@ -3254,7 +3254,7 @@
     </row>
     <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>3</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>8</v>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="48" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>6</v>
@@ -3350,7 +3350,7 @@
     </row>
     <row r="49" spans="1:2" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>6</v>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="51" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="22" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>14</v>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>16</v>
@@ -3502,7 +3502,7 @@
     </row>
     <row r="68" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="22" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>16</v>
@@ -3534,7 +3534,7 @@
     </row>
     <row r="72" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>16</v>
@@ -3550,7 +3550,7 @@
     </row>
     <row r="74" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>16</v>
@@ -3566,7 +3566,7 @@
     </row>
     <row r="76" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="21" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>16</v>
@@ -3606,7 +3606,7 @@
     </row>
     <row r="81" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A81" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>16</v>
@@ -3622,7 +3622,7 @@
     </row>
     <row r="83" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="21" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>16</v>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="92" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>16</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="94" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A94" s="19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>16</v>
@@ -3718,7 +3718,7 @@
     </row>
     <row r="95" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>16</v>
@@ -3726,7 +3726,7 @@
     </row>
     <row r="96" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>16</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="97" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>16</v>
@@ -3750,7 +3750,7 @@
     </row>
     <row r="99" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>16</v>
@@ -3758,7 +3758,7 @@
     </row>
     <row r="100" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="13" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>16</v>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="103" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>16</v>
@@ -3790,7 +3790,7 @@
     </row>
     <row r="104" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>16</v>
@@ -3798,7 +3798,7 @@
     </row>
     <row r="105" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="19" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>16</v>
@@ -3814,7 +3814,7 @@
     </row>
     <row r="107" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>16</v>
@@ -3838,7 +3838,7 @@
     </row>
     <row r="110" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>16</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="111" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="19" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>16</v>
@@ -3854,7 +3854,7 @@
     </row>
     <row r="112" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>16</v>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="113" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="19" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>16</v>
@@ -3870,7 +3870,7 @@
     </row>
     <row r="114" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>16</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="115" spans="1:2" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>16</v>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="120" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="19" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>31</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="122" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="19" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>31</v>
@@ -3958,7 +3958,7 @@
     </row>
     <row r="125" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A125" s="19" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>31</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="126" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>31</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="127" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A127" s="13" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>31</v>
@@ -3998,7 +3998,7 @@
     </row>
     <row r="130" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A130" s="21" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>36</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="131" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A131" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>36</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="133" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A133" s="22" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>42</v>
@@ -4062,7 +4062,7 @@
     </row>
     <row r="138" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="21" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>42</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="139" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A139" s="21" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>42</v>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="140" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>42</v>
@@ -4086,7 +4086,7 @@
     </row>
     <row r="141" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A141" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>42</v>
@@ -4118,7 +4118,7 @@
     </row>
     <row r="145" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="21" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>42</v>
@@ -4126,7 +4126,7 @@
     </row>
     <row r="146" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A146" s="22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>42</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="147" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A147" s="21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>42</v>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="154" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="21" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>42</v>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="155" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="21" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>42</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="163" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A163" s="13" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>42</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="164" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A164" s="19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>42</v>
@@ -4302,7 +4302,7 @@
     </row>
     <row r="168" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A168" s="19" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>42</v>
@@ -4310,7 +4310,7 @@
     </row>
     <row r="169" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>42</v>
@@ -4318,7 +4318,7 @@
     </row>
     <row r="170" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="13" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>42</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="177" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="21" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>54</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="183" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="13" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>54</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="187" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="21" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>56</v>
@@ -4462,7 +4462,7 @@
     </row>
     <row r="188" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="21" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>56</v>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="190" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="21" t="s">
-        <v>232</v>
+        <v>590</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>56</v>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="191" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>56</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="192" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A192" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>56</v>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="193" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>56</v>
@@ -4510,7 +4510,7 @@
     </row>
     <row r="194" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>58</v>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="195" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>58</v>
@@ -4526,7 +4526,7 @@
     </row>
     <row r="196" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>58</v>
@@ -4534,7 +4534,7 @@
     </row>
     <row r="197" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>58</v>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="198" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A198" s="21" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>58</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>58</v>
@@ -4558,7 +4558,7 @@
     </row>
     <row r="200" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="13" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>58</v>
@@ -4566,7 +4566,7 @@
     </row>
     <row r="201" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="21" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>60</v>
@@ -4574,7 +4574,7 @@
     </row>
     <row r="202" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>62</v>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="203" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>62</v>
@@ -4590,7 +4590,7 @@
     </row>
     <row r="204" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A204" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>62</v>
@@ -4598,7 +4598,7 @@
     </row>
     <row r="205" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>64</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="206" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A206" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>66</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="207" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>66</v>
@@ -4622,7 +4622,7 @@
     </row>
     <row r="208" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>66</v>
@@ -4630,7 +4630,7 @@
     </row>
     <row r="209" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" s="15" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>66</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="211" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>66</v>
@@ -4654,7 +4654,7 @@
     </row>
     <row r="212" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A212" s="13" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>66</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="213" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>66</v>
@@ -4670,7 +4670,7 @@
     </row>
     <row r="214" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A214" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>66</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="215" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>66</v>
@@ -4686,7 +4686,7 @@
     </row>
     <row r="216" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>69</v>
@@ -4694,7 +4694,7 @@
     </row>
     <row r="217" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" s="15" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>69</v>
@@ -4702,7 +4702,7 @@
     </row>
     <row r="218" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A218" s="13" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>69</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="219" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" s="15" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>73</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="220" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" s="15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>73</v>
@@ -4726,7 +4726,7 @@
     </row>
     <row r="221" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" s="15" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>73</v>
@@ -4734,7 +4734,7 @@
     </row>
     <row r="222" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" s="15" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>73</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="223" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" s="15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>73</v>
@@ -4750,7 +4750,7 @@
     </row>
     <row r="224" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>73</v>
@@ -4758,7 +4758,7 @@
     </row>
     <row r="225" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A225" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>73</v>
@@ -4766,7 +4766,7 @@
     </row>
     <row r="226" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A226" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B226" s="4" t="s">
         <v>73</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="227" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>73</v>
@@ -4782,7 +4782,7 @@
     </row>
     <row r="228" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" s="15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>73</v>
@@ -4790,7 +4790,7 @@
     </row>
     <row r="229" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" s="15" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>73</v>
@@ -4798,7 +4798,7 @@
     </row>
     <row r="230" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" s="15" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B230" s="4" t="s">
         <v>73</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="231" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B231" s="4" t="s">
         <v>73</v>
@@ -4814,7 +4814,7 @@
     </row>
     <row r="232" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A232" s="15" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>73</v>
@@ -4822,7 +4822,7 @@
     </row>
     <row r="233" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" s="15" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>73</v>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="234" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="15" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B234" s="4" t="s">
         <v>73</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="235" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B235" s="4" t="s">
         <v>73</v>
@@ -4846,7 +4846,7 @@
     </row>
     <row r="236" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" s="15" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B236" s="4" t="s">
         <v>73</v>
@@ -4854,7 +4854,7 @@
     </row>
     <row r="237" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A237" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B237" s="4" t="s">
         <v>73</v>
@@ -4862,7 +4862,7 @@
     </row>
     <row r="238" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B238" s="4" t="s">
         <v>73</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="239" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" s="15" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B239" s="4" t="s">
         <v>73</v>
@@ -4878,7 +4878,7 @@
     </row>
     <row r="240" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" s="15" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>73</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="241" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B241" s="4" t="s">
         <v>73</v>
@@ -4894,7 +4894,7 @@
     </row>
     <row r="242" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A242" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B242" s="4" t="s">
         <v>73</v>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="243" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A243" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B243" s="4" t="s">
         <v>73</v>
@@ -4910,7 +4910,7 @@
     </row>
     <row r="244" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A244" s="13" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B244" s="4" t="s">
         <v>73</v>
@@ -4918,7 +4918,7 @@
     </row>
     <row r="245" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A245" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B245" s="4" t="s">
         <v>73</v>
@@ -4926,7 +4926,7 @@
     </row>
     <row r="246" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A246" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B246" s="4" t="s">
         <v>73</v>
@@ -4934,7 +4934,7 @@
     </row>
     <row r="247" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B247" s="4" t="s">
         <v>73</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="248" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" s="13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>73</v>
@@ -4950,7 +4950,7 @@
     </row>
     <row r="249" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A249" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>73</v>
@@ -4958,7 +4958,7 @@
     </row>
     <row r="250" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A250" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B250" s="4" t="s">
         <v>73</v>
@@ -4966,7 +4966,7 @@
     </row>
     <row r="251" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A251" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B251" s="4" t="s">
         <v>73</v>
@@ -4974,7 +4974,7 @@
     </row>
     <row r="252" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A252" s="13" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>73</v>
@@ -4982,7 +4982,7 @@
     </row>
     <row r="253" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" s="13" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>73</v>
@@ -4990,7 +4990,7 @@
     </row>
     <row r="254" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" s="13" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B254" s="4" t="s">
         <v>73</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="255" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A255" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B255" s="4" t="s">
         <v>73</v>
@@ -5006,7 +5006,7 @@
     </row>
     <row r="256" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A256" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>73</v>
@@ -5014,7 +5014,7 @@
     </row>
     <row r="257" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A257" s="13" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B257" s="4" t="s">
         <v>73</v>
@@ -5022,7 +5022,7 @@
     </row>
     <row r="258" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A258" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B258" s="4" t="s">
         <v>73</v>
@@ -5030,7 +5030,7 @@
     </row>
     <row r="259" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A259" s="13" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B259" s="4" t="s">
         <v>73</v>
@@ -5038,7 +5038,7 @@
     </row>
     <row r="260" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A260" s="13" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B260" s="4" t="s">
         <v>73</v>
@@ -5046,7 +5046,7 @@
     </row>
     <row r="261" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A261" s="15" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B261" s="4" t="s">
         <v>75</v>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="262" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A262" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B262" s="4" t="s">
         <v>75</v>
@@ -5062,7 +5062,7 @@
     </row>
     <row r="263" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A263" s="13" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B263" s="4" t="s">
         <v>75</v>
@@ -5070,7 +5070,7 @@
     </row>
     <row r="264" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A264" s="13" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B264" s="4" t="s">
         <v>75</v>
@@ -5078,7 +5078,7 @@
     </row>
     <row r="265" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A265" s="19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B265" s="4" t="s">
         <v>79</v>
@@ -5086,7 +5086,7 @@
     </row>
     <row r="266" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A266" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B266" s="4" t="s">
         <v>79</v>
@@ -5094,7 +5094,7 @@
     </row>
     <row r="267" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A267" s="15" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B267" s="4" t="s">
         <v>79</v>
@@ -5102,7 +5102,7 @@
     </row>
     <row r="268" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A268" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B268" s="4" t="s">
         <v>79</v>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="269" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A269" s="19" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B269" s="4" t="s">
         <v>79</v>
@@ -5118,7 +5118,7 @@
     </row>
     <row r="270" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A270" s="13" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B270" s="4" t="s">
         <v>79</v>
@@ -5126,7 +5126,7 @@
     </row>
     <row r="271" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A271" s="13" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B271" s="4" t="s">
         <v>79</v>
@@ -5134,7 +5134,7 @@
     </row>
     <row r="272" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A272" s="13" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B272" s="4" t="s">
         <v>79</v>
@@ -5142,7 +5142,7 @@
     </row>
     <row r="273" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A273" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B273" s="4" t="s">
         <v>84</v>
@@ -5150,7 +5150,7 @@
     </row>
     <row r="274" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A274" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B274" s="4" t="s">
         <v>86</v>
@@ -5158,7 +5158,7 @@
     </row>
     <row r="275" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A275" s="15" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B275" s="4" t="s">
         <v>86</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="276" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A276" s="13" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B276" s="4" t="s">
         <v>86</v>
@@ -5174,7 +5174,7 @@
     </row>
     <row r="277" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A277" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B277" s="4" t="s">
         <v>86</v>
@@ -5182,7 +5182,7 @@
     </row>
     <row r="278" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A278" s="13" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B278" s="4" t="s">
         <v>86</v>
@@ -5190,7 +5190,7 @@
     </row>
     <row r="279" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A279" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B279" s="4" t="s">
         <v>86</v>
@@ -5198,7 +5198,7 @@
     </row>
     <row r="280" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A280" s="13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B280" s="4" t="s">
         <v>86</v>
@@ -5206,7 +5206,7 @@
     </row>
     <row r="281" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A281" s="13" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B281" s="4" t="s">
         <v>86</v>
@@ -5214,7 +5214,7 @@
     </row>
     <row r="282" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A282" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B282" s="4" t="s">
         <v>86</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="283" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A283" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B283" s="4" t="s">
         <v>86</v>
@@ -5230,7 +5230,7 @@
     </row>
     <row r="284" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A284" s="13" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B284" s="4" t="s">
         <v>86</v>
@@ -5238,7 +5238,7 @@
     </row>
     <row r="285" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A285" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B285" s="23" t="s">
         <v>66</v>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>89</v>
@@ -5321,7 +5321,7 @@
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -5347,7 +5347,7 @@
     </row>
     <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
@@ -5356,7 +5356,7 @@
     </row>
     <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>3</v>
@@ -5365,7 +5365,7 @@
     </row>
     <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>3</v>
@@ -5374,7 +5374,7 @@
     </row>
     <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>3</v>
@@ -5392,7 +5392,7 @@
     </row>
     <row r="10" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>3</v>
@@ -5401,7 +5401,7 @@
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>3</v>
@@ -5410,7 +5410,7 @@
     </row>
     <row r="12" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>3</v>
@@ -5419,7 +5419,7 @@
     </row>
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>3</v>
@@ -5428,7 +5428,7 @@
     </row>
     <row r="14" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>3</v>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>3</v>
@@ -5455,7 +5455,7 @@
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>3</v>
@@ -5491,7 +5491,7 @@
     </row>
     <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>8</v>
@@ -5500,7 +5500,7 @@
     </row>
     <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>8</v>
@@ -5509,7 +5509,7 @@
     </row>
     <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>12</v>
@@ -5518,7 +5518,7 @@
     </row>
     <row r="24" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>14</v>
@@ -5527,18 +5527,18 @@
     </row>
     <row r="25" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>14</v>
@@ -5549,18 +5549,18 @@
     </row>
     <row r="27" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>14</v>
@@ -5580,7 +5580,7 @@
     </row>
     <row r="30" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>16</v>
@@ -5589,29 +5589,29 @@
     </row>
     <row r="31" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>331</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>333</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>16</v>
@@ -5622,29 +5622,29 @@
     </row>
     <row r="34" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>336</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>338</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>16</v>
@@ -5652,7 +5652,7 @@
     </row>
     <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>16</v>
@@ -5672,7 +5672,7 @@
     </row>
     <row r="39" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>16</v>
@@ -5681,7 +5681,7 @@
     </row>
     <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>16</v>
@@ -5692,18 +5692,18 @@
     </row>
     <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>16</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="43" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>16</v>
@@ -5721,7 +5721,7 @@
     </row>
     <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>16</v>
@@ -5730,7 +5730,7 @@
     </row>
     <row r="45" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>16</v>
@@ -5739,7 +5739,7 @@
     </row>
     <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>16</v>
@@ -5750,7 +5750,7 @@
     </row>
     <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>16</v>
@@ -5761,7 +5761,7 @@
     </row>
     <row r="48" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>31</v>
@@ -5769,7 +5769,7 @@
     </row>
     <row r="49" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>36</v>
@@ -5778,7 +5778,7 @@
     </row>
     <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>38</v>
@@ -5787,7 +5787,7 @@
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>38</v>
@@ -5796,7 +5796,7 @@
     </row>
     <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>36</v>
@@ -5805,7 +5805,7 @@
     </row>
     <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>38</v>
@@ -5814,7 +5814,7 @@
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>38</v>
@@ -5834,7 +5834,7 @@
     </row>
     <row r="56" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>84</v>
@@ -5843,7 +5843,7 @@
     </row>
     <row r="57" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>42</v>
@@ -5854,7 +5854,7 @@
     </row>
     <row r="58" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>42</v>
@@ -5865,7 +5865,7 @@
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>42</v>
@@ -5876,7 +5876,7 @@
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>42</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="61" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>42</v>
@@ -5920,7 +5920,7 @@
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>42</v>
@@ -5942,7 +5942,7 @@
     </row>
     <row r="66" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>42</v>
@@ -5986,7 +5986,7 @@
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>42</v>
@@ -6028,7 +6028,7 @@
     </row>
     <row r="74" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>54</v>
@@ -6039,7 +6039,7 @@
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>54</v>
@@ -6050,7 +6050,7 @@
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>54</v>
@@ -6059,7 +6059,7 @@
     </row>
     <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>54</v>
@@ -6067,7 +6067,7 @@
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>54</v>
@@ -6076,7 +6076,7 @@
     </row>
     <row r="79" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>54</v>
@@ -6093,7 +6093,7 @@
     </row>
     <row r="81" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>56</v>
@@ -6104,7 +6104,7 @@
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>56</v>
@@ -6122,7 +6122,7 @@
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>56</v>
@@ -6131,7 +6131,7 @@
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>56</v>
@@ -6140,7 +6140,7 @@
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>56</v>
@@ -6151,7 +6151,7 @@
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>56</v>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="88" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>56</v>
@@ -6169,7 +6169,7 @@
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>56</v>
@@ -6180,7 +6180,7 @@
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>58</v>
@@ -6189,7 +6189,7 @@
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>58</v>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="93" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>58</v>
@@ -6218,7 +6218,7 @@
     </row>
     <row r="94" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>58</v>
@@ -6229,7 +6229,7 @@
     </row>
     <row r="95" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>58</v>
@@ -6238,7 +6238,7 @@
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>60</v>
@@ -6247,7 +6247,7 @@
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>62</v>
@@ -6256,7 +6256,7 @@
     </row>
     <row r="98" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>64</v>
@@ -6265,7 +6265,7 @@
     </row>
     <row r="99" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>66</v>
@@ -6274,7 +6274,7 @@
     </row>
     <row r="100" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>66</v>
@@ -6285,7 +6285,7 @@
     </row>
     <row r="101" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>66</v>
@@ -6303,7 +6303,7 @@
     </row>
     <row r="103" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>66</v>
@@ -6312,7 +6312,7 @@
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>66</v>
@@ -6321,7 +6321,7 @@
     </row>
     <row r="105" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>69</v>
@@ -6332,7 +6332,7 @@
     </row>
     <row r="106" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>69</v>
@@ -6343,7 +6343,7 @@
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>73</v>
@@ -6354,7 +6354,7 @@
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>73</v>
@@ -6365,7 +6365,7 @@
     </row>
     <row r="109" spans="1:3" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>73</v>
@@ -6376,7 +6376,7 @@
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>73</v>
@@ -6387,7 +6387,7 @@
     </row>
     <row r="111" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A111" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>73</v>
@@ -6396,7 +6396,7 @@
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>73</v>
@@ -6405,7 +6405,7 @@
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>73</v>
@@ -6414,7 +6414,7 @@
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>73</v>
@@ -6423,7 +6423,7 @@
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>73</v>
@@ -6434,7 +6434,7 @@
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>73</v>
@@ -6443,7 +6443,7 @@
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>73</v>
@@ -6454,7 +6454,7 @@
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>73</v>
@@ -6463,7 +6463,7 @@
     </row>
     <row r="119" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>73</v>
@@ -6474,7 +6474,7 @@
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>73</v>
@@ -6483,7 +6483,7 @@
     </row>
     <row r="121" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A121" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>73</v>
@@ -6494,7 +6494,7 @@
     </row>
     <row r="122" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>73</v>
@@ -6505,7 +6505,7 @@
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>73</v>
@@ -6516,7 +6516,7 @@
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>73</v>
@@ -6527,7 +6527,7 @@
     </row>
     <row r="125" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A125" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>73</v>
@@ -6538,7 +6538,7 @@
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>73</v>
@@ -6547,7 +6547,7 @@
     </row>
     <row r="127" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A127" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>73</v>
@@ -6556,7 +6556,7 @@
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>73</v>
@@ -6567,7 +6567,7 @@
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>73</v>
@@ -6576,7 +6576,7 @@
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>73</v>
@@ -6587,7 +6587,7 @@
     </row>
     <row r="131" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A131" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>75</v>
@@ -6598,7 +6598,7 @@
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>75</v>
@@ -6609,7 +6609,7 @@
     </row>
     <row r="133" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A133" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>79</v>
@@ -6620,7 +6620,7 @@
     </row>
     <row r="134" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>79</v>
@@ -6629,7 +6629,7 @@
     </row>
     <row r="135" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>79</v>
@@ -6640,7 +6640,7 @@
     </row>
     <row r="136" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>79</v>
@@ -6651,7 +6651,7 @@
     </row>
     <row r="137" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A137" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>84</v>
@@ -6660,7 +6660,7 @@
     </row>
     <row r="138" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A138" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>86</v>
@@ -6669,7 +6669,7 @@
     </row>
     <row r="139" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A139" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>86</v>
@@ -6678,7 +6678,7 @@
     </row>
     <row r="140" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>73</v>
@@ -6694,7 +6694,7 @@
     </row>
     <row r="142" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A142" s="13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>73</v>
@@ -6702,7 +6702,7 @@
     </row>
     <row r="143" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>73</v>
@@ -6710,7 +6710,7 @@
     </row>
     <row r="144" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>16</v>
@@ -6718,7 +6718,7 @@
     </row>
     <row r="145" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A145" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>3</v>
@@ -6726,7 +6726,7 @@
     </row>
     <row r="146" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>86</v>
@@ -6734,7 +6734,7 @@
     </row>
     <row r="147" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>66</v>
@@ -6742,7 +6742,7 @@
     </row>
     <row r="148" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>3</v>
@@ -6750,7 +6750,7 @@
     </row>
     <row r="149" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>66</v>
@@ -6758,7 +6758,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>58</v>
@@ -6766,7 +6766,7 @@
     </row>
     <row r="151" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>54</v>
@@ -6806,7 +6806,7 @@
     </row>
     <row r="156" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A156" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>3</v>
@@ -6814,7 +6814,7 @@
     </row>
     <row r="157" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A157" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>86</v>
@@ -6822,7 +6822,7 @@
     </row>
     <row r="158" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>73</v>
@@ -6830,7 +6830,7 @@
     </row>
     <row r="159" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A159" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>86</v>
@@ -6838,7 +6838,7 @@
     </row>
     <row r="160" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A160" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>31</v>
@@ -6849,7 +6849,7 @@
     </row>
     <row r="161" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A161" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>16</v>
@@ -6857,7 +6857,7 @@
     </row>
     <row r="162" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A162" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>42</v>
@@ -6892,7 +6892,7 @@
     </row>
     <row r="166" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>73</v>
@@ -6900,7 +6900,7 @@
     </row>
     <row r="167" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A167" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>8</v>
@@ -6908,7 +6908,7 @@
     </row>
     <row r="168" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A168" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>86</v>
@@ -6916,7 +6916,7 @@
     </row>
     <row r="169" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A169" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>86</v>
@@ -6924,7 +6924,7 @@
     </row>
     <row r="170" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A170" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>31</v>
@@ -6935,7 +6935,7 @@
     </row>
     <row r="171" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A171" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>42</v>
@@ -6946,7 +6946,7 @@
     </row>
     <row r="172" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A172" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>16</v>
@@ -6962,7 +6962,7 @@
     </row>
     <row r="174" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A174" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>56</v>
@@ -6970,7 +6970,7 @@
     </row>
     <row r="175" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A175" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>73</v>
@@ -6986,7 +6986,7 @@
     </row>
     <row r="177" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A177" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>54</v>
@@ -7002,7 +7002,7 @@
     </row>
     <row r="179" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A179" s="13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>42</v>
@@ -7013,7 +7013,7 @@
     </row>
     <row r="180" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A180" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>16</v>
@@ -7029,7 +7029,7 @@
     </row>
     <row r="182" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>73</v>
@@ -7048,7 +7048,7 @@
     </row>
     <row r="184" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A184" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>38</v>
@@ -7064,7 +7064,7 @@
     </row>
     <row r="186" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>73</v>
@@ -7072,7 +7072,7 @@
     </row>
     <row r="187" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A187" s="13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>31</v>
@@ -7099,7 +7099,7 @@
     </row>
     <row r="190" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A190" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>73</v>
@@ -7107,7 +7107,7 @@
     </row>
     <row r="191" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A191" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>69</v>
@@ -7123,7 +7123,7 @@
     </row>
     <row r="193" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A193" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>3</v>
@@ -7131,7 +7131,7 @@
     </row>
     <row r="194" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A194" s="13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>42</v>
@@ -7164,7 +7164,7 @@
     </row>
     <row r="197" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A197" s="13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>42</v>
@@ -7175,7 +7175,7 @@
     </row>
     <row r="198" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A198" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>86</v>
@@ -7210,7 +7210,7 @@
     </row>
     <row r="202" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A202" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>79</v>
@@ -7221,7 +7221,7 @@
     </row>
     <row r="203" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>79</v>
@@ -7232,7 +7232,7 @@
     </row>
     <row r="204" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A204" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>86</v>
@@ -7240,7 +7240,7 @@
     </row>
     <row r="205" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>79</v>
@@ -7259,7 +7259,7 @@
     </row>
     <row r="207" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>73</v>
@@ -7275,7 +7275,7 @@
     </row>
     <row r="209" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A209" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>38</v>
@@ -7299,7 +7299,7 @@
     </row>
     <row r="212" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A212" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>38</v>
@@ -7307,7 +7307,7 @@
     </row>
     <row r="213" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>73</v>
@@ -7339,7 +7339,7 @@
     </row>
     <row r="217" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A217" s="13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>16</v>
@@ -7355,7 +7355,7 @@
     </row>
     <row r="219" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A219" s="13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>42</v>
@@ -7366,7 +7366,7 @@
     </row>
     <row r="220" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A220" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>16</v>
@@ -7377,7 +7377,7 @@
     </row>
     <row r="221" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A221" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>66</v>
@@ -7385,7 +7385,7 @@
     </row>
     <row r="222" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A222" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>54</v>
@@ -7393,7 +7393,7 @@
     </row>
     <row r="223" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A223" s="13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>16</v>
@@ -7412,7 +7412,7 @@
     </row>
     <row r="225" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A225" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>16</v>
@@ -7431,18 +7431,18 @@
     </row>
     <row r="227" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A228" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>86</v>
@@ -7458,7 +7458,7 @@
     </row>
     <row r="230" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B230" s="4" t="s">
         <v>75</v>
@@ -7469,7 +7469,7 @@
     </row>
     <row r="231" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B231" s="4" t="s">
         <v>73</v>
@@ -7477,7 +7477,7 @@
     </row>
     <row r="232" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A232" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>16</v>
@@ -7485,7 +7485,7 @@
     </row>
     <row r="233" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A233" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>14</v>
@@ -7493,18 +7493,18 @@
     </row>
     <row r="234" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A234" s="13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B234" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A235" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B235" s="4" t="s">
         <v>3</v>
@@ -7512,7 +7512,7 @@
     </row>
     <row r="236" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B236" s="4" t="s">
         <v>73</v>
@@ -7528,7 +7528,7 @@
     </row>
     <row r="238" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B238" s="4" t="s">
         <v>73</v>
@@ -7536,7 +7536,7 @@
     </row>
     <row r="239" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B239" s="4" t="s">
         <v>86</v>
@@ -7568,7 +7568,7 @@
     </row>
     <row r="243" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A243" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B243" s="4" t="s">
         <v>3</v>
@@ -7576,7 +7576,7 @@
     </row>
     <row r="244" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A244" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B244" s="4" t="s">
         <v>73</v>
@@ -7584,7 +7584,7 @@
     </row>
     <row r="245" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A245" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B245" s="4" t="s">
         <v>16</v>
@@ -7600,7 +7600,7 @@
     </row>
     <row r="247" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B247" s="4" t="s">
         <v>58</v>
@@ -7608,7 +7608,7 @@
     </row>
     <row r="248" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A248" s="13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>56</v>
@@ -7616,7 +7616,7 @@
     </row>
     <row r="249" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" s="13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>3</v>
@@ -7624,7 +7624,7 @@
     </row>
     <row r="250" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A250" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B250" s="4" t="s">
         <v>73</v>
@@ -7632,7 +7632,7 @@
     </row>
     <row r="251" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A251" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B251" s="4" t="s">
         <v>66</v>
@@ -7640,7 +7640,7 @@
     </row>
     <row r="252" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A252" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>86</v>
@@ -7648,7 +7648,7 @@
     </row>
     <row r="253" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>73</v>
@@ -7702,24 +7702,24 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
@@ -7728,21 +7728,21 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C3" t="s">
         <v>465</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>466</v>
-      </c>
-      <c r="D3" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>467</v>
+      </c>
+      <c r="B4" t="s">
         <v>468</v>
-      </c>
-      <c r="B4" t="s">
-        <v>469</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -7750,10 +7750,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B5" t="s">
         <v>470</v>
-      </c>
-      <c r="B5" t="s">
-        <v>471</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -7822,9 +7822,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8039,19 +8042,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD2911FF-F89D-4904-8999-6B7B74F09443}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73852CBC-2E2A-43EB-ADAD-FD0ACC658E1E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8076,9 +8075,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73852CBC-2E2A-43EB-ADAD-FD0ACC658E1E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD2911FF-F89D-4904-8999-6B7B74F09443}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>